--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="184">
   <si>
     <t>Doi</t>
   </si>
@@ -727,6 +727,81 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,  Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,  Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,  Elena%Del Fante%edelfante@hotmail.it%1,  Rosanna%De Pace%Rosannadepace@libero.it%1,  Antonino%Urso%antonino.urso@tin.it%1,  Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%0]</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,   Berta%Ausín%NULL%1,   Miguel Ángel%Castellanos%NULL%1,   Jesús%Saiz%NULL%1,   Aída%López-Gómez%NULL%1,   Carolina%Ugidos%NULL%1,   Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,   Riyu%Pan%NULL%0,   Riyu%Pan%NULL%0,   Xiaoyang%Wan%NULL%0,   Yilin%Tan%NULL%0,   Linkang%Xu%NULL%0,   Cyrus S.%Ho%NULL%0,   Roger C.%Ho%NULL%0,   Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,   Qian%Xia%NULL%1,   Zhenzhen%Xiong%NULL%1,   Zhixiong%Li%NULL%1,   Weiyi%Xiang%NULL%1,   Yiwen%Yuan%NULL%1,   Yaya%Liu%NULL%1,   Zhe%Li%NULL%1,   Kenji%Hashimoto%NULL%0,   Kenji%Hashimoto%NULL%0,   Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,   Jun%Wang%NULL%0,   Chenggang%Luo%NULL%1,   Sheng%Hu%NULL%1,   Xi%Lin%NULL%1,   Aimee E.%Anderson%NULL%1,   Eduardo%Bruera%NULL%1,   Xiaoxin%Yang%NULL%1,   Shaozhong%Wei%NULL%1,   Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,   Zheng Feei%Ma%NULL%0,   Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,   Riyu%Pan%NULL%0,   Xiaoyang%Wan%NULL%0,   Yilin%Tan%NULL%0,   Linkang%Xu%NULL%0,   Roger S.%McIntyre%NULL%1,   Faith N.%Choo%NULL%1,   Bach%Tran%NULL%1,   Roger%Ho%NULL%1,   Vijay K.%Sharma%NULL%0,   Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,   Ariella%Grossman-Giron%NULL%1,   Yuval%Bloch%NULL%1,   Yael%Mayer%NULL%1,   Noga%Shiffman%NULL%1,   Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,   Philip J.%Corr%NULL%2,   Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,   Li-Gang%Zhang%NULL%1,   Lei-Lei%Wang%NULL%1,   Zhao-Chang%Guo%NULL%1,   Jing-Qi%Wang%NULL%1,   Jin-Cheng%Chen%NULL%1,   Mei%Liu%NULL%1,   Xi%Chen%NULL%1,   Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,   Baoren%Tu%NULL%0,   Jing%Ma%NULL%0,   Limin%Chen%NULL%0,   Lei%Fu%NULL%0,   Yongfang%Jiang%NULL%0,   Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,   Xiaoming%Huang%NULL%1,   Shuai%Zhang%NULL%1,   Jinrong%Yang%NULL%1,   Lin%Yang%NULL%0,   Min%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,   Zhenxin%Liao%NULL%0,   Haojie%Huang%NULL%0,   Boyue%Jiang%NULL%0,   Xueyan%Zhang%NULL%0,   Yingwen%Wang%NULL%0,   Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,   Simeng%Ma%NULL%0,   Min%Chen%NULL%0,   Jun%Yang%NULL%0,   Ying%Wang%NULL%0,   Ruiting%Li%NULL%0,   Lihua%Yao%NULL%0,   Hanping%Bai%NULL%0,   Zhongxiang%Cai%NULL%0,   Bing%Xiang Yang%NULL%0,   Shaohua%Hu%NULL%0,   Kerang%Zhang%NULL%0,   Gaohua%Wang%NULL%0,   Ci%Ma%NULL%0,   Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,   Ziwei%Fang%NULL%0,   Guoqiang%Hou%NULL%0,   Mei%Han%NULL%0,   Xinrong%Xu%NULL%0,   Jiaxin%Dong%NULL%0,   Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,   Simeng%Ma%NULL%0,   Ying%Wang%NULL%0,   Zhongxiang%Cai%NULL%0,   Jianbo%Hu%NULL%0,   Ning%Wei%NULL%0,   Jiang%Wu%NULL%0,   Hui%Du%NULL%0,   Tingting%Chen%NULL%0,   Ruiting%Li%NULL%0,   Huawei%Tan%NULL%0,   Lijun%Kang%NULL%0,   Lihua%Yao%NULL%0,   Manli%Huang%NULL%0,   Huafen%Wang%NULL%0,   Gaohua%Wang%NULL%0,   Zhongchun%Liu%NULL%0,   Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,   Lan%Deng%NULL%0,   Lan%Deng%NULL%0,   Liyan%Zhang%NULL%0,   Qiuyan%Lang%NULL%0,   Chunyan%Liao%NULL%0,   Nannan%Wang%NULL%0,   Mingqin%Qin%2026142822@qq.com%0,   Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,   Yilin%Wang%NULL%1,   Jia%Xue%NULL%1,   Nan%Zhao%NULL%1,   Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,   Yun-zhi%Yang%NULL%1,   Xiao-Ming%Zhang%NULL%1,   Xinying%Xu%NULL%2,   Xinying%Xu%NULL%0,   Qing-Li%Dou%NULL%1,   Wen-Wu%Zhang%NULL%1,   Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,   Yan%Zhang%NULL%0,   Desheng%Kong%NULL%0,   Shiyue%Li%NULL%0,   Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,   Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,   Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,   Elena%Del Fante%edelfante@hotmail.it%1,   Rosanna%De Pace%Rosannadepace@libero.it%1,   Antonino%Urso%antonino.urso@tin.it%1,   Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -1056,6 +1131,9 @@
       <c r="H1" t="s">
         <v>40</v>
       </c>
+      <c r="I1" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1071,7 +1149,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1081,6 +1159,9 @@
       </c>
       <c r="H2" t="s">
         <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="3">
@@ -1097,7 +1178,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>140</v>
+        <v>162</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1107,6 +1188,9 @@
       </c>
       <c r="H3" t="s">
         <v>51</v>
+      </c>
+      <c r="I3" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -1123,7 +1207,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>141</v>
+        <v>164</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -1133,6 +1217,9 @@
       </c>
       <c r="H4" t="s">
         <v>56</v>
+      </c>
+      <c r="I4" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="5">
@@ -1160,6 +1247,9 @@
       <c r="H5" t="s">
         <v>57</v>
       </c>
+      <c r="I5" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
@@ -1175,7 +1265,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>142</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1185,6 +1275,9 @@
       </c>
       <c r="H6" t="s">
         <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="7">
@@ -1201,7 +1294,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>167</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1211,6 +1304,9 @@
       </c>
       <c r="H7" t="s">
         <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="8">
@@ -1238,6 +1334,9 @@
       <c r="H8" t="s">
         <v>57</v>
       </c>
+      <c r="I8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -1253,7 +1352,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1263,6 +1362,9 @@
       </c>
       <c r="H9" t="s">
         <v>72</v>
+      </c>
+      <c r="I9" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="10">
@@ -1279,7 +1381,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>169</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1289,6 +1391,9 @@
       </c>
       <c r="H10" t="s">
         <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="11">
@@ -1316,6 +1421,9 @@
       <c r="H11" t="s">
         <v>57</v>
       </c>
+      <c r="I11" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -1331,7 +1439,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>170</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -1341,6 +1449,9 @@
       </c>
       <c r="H12" t="s">
         <v>57</v>
+      </c>
+      <c r="I12" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="13">
@@ -1357,7 +1468,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>147</v>
+        <v>171</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1367,6 +1478,9 @@
       </c>
       <c r="H13" t="s">
         <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="14">
@@ -1383,7 +1497,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>148</v>
+        <v>173</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -1393,6 +1507,9 @@
       </c>
       <c r="H14" t="s">
         <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
@@ -1420,6 +1537,9 @@
       <c r="H15" t="s">
         <v>57</v>
       </c>
+      <c r="I15" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
@@ -1435,7 +1555,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>149</v>
+        <v>174</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -1445,6 +1565,9 @@
       </c>
       <c r="H16" t="s">
         <v>95</v>
+      </c>
+      <c r="I16" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="17">
@@ -1461,7 +1584,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -1471,6 +1594,9 @@
       </c>
       <c r="H17" t="s">
         <v>100</v>
+      </c>
+      <c r="I17" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="18">
@@ -1487,7 +1613,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1497,6 +1623,9 @@
       </c>
       <c r="H18" t="s">
         <v>67</v>
+      </c>
+      <c r="I18" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="19">
@@ -1513,7 +1642,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>152</v>
+        <v>177</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -1523,6 +1652,9 @@
       </c>
       <c r="H19" t="s">
         <v>109</v>
+      </c>
+      <c r="I19" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="20">
@@ -1539,7 +1671,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>153</v>
+        <v>178</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -1549,6 +1681,9 @@
       </c>
       <c r="H20" t="s">
         <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="21">
@@ -1565,7 +1700,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>154</v>
+        <v>179</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -1575,6 +1710,9 @@
       </c>
       <c r="H21" t="s">
         <v>119</v>
+      </c>
+      <c r="I21" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="22">
@@ -1591,7 +1729,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -1601,6 +1739,9 @@
       </c>
       <c r="H22" t="s">
         <v>124</v>
+      </c>
+      <c r="I22" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="23">
@@ -1617,7 +1758,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>181</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -1627,6 +1768,9 @@
       </c>
       <c r="H23" t="s">
         <v>129</v>
+      </c>
+      <c r="I23" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="24">
@@ -1643,7 +1787,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -1653,6 +1797,9 @@
       </c>
       <c r="H24" t="s">
         <v>134</v>
+      </c>
+      <c r="I24" t="s">
+        <v>163</v>
       </c>
     </row>
     <row r="25">
@@ -1680,6 +1827,9 @@
       <c r="H25" t="s">
         <v>57</v>
       </c>
+      <c r="I25" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
@@ -1695,7 +1845,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>158</v>
+        <v>183</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>
@@ -1705,6 +1855,9 @@
       </c>
       <c r="H26" t="s">
         <v>57</v>
+      </c>
+      <c r="I26" t="s">
+        <v>172</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="244">
   <si>
     <t>Doi</t>
   </si>
@@ -802,6 +802,186 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,   Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,   Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,   Elena%Del Fante%edelfante@hotmail.it%1,   Rosanna%De Pace%Rosannadepace@libero.it%1,   Antonino%Urso%antonino.urso@tin.it%1,   Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,    Berta%Ausín%NULL%1,    Miguel Ángel%Castellanos%NULL%1,    Jesús%Saiz%NULL%1,    Aída%López-Gómez%NULL%1,    Carolina%Ugidos%NULL%1,    Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,    Riyu%Pan%NULL%0,    Riyu%Pan%NULL%0,    Xiaoyang%Wan%NULL%0,    Yilin%Tan%NULL%0,    Linkang%Xu%NULL%0,    Cyrus S.%Ho%NULL%0,    Roger C.%Ho%NULL%0,    Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,    Qian%Xia%NULL%1,    Zhenzhen%Xiong%NULL%1,    Zhixiong%Li%NULL%1,    Weiyi%Xiang%NULL%1,    Yiwen%Yuan%NULL%1,    Yaya%Liu%NULL%1,    Zhe%Li%NULL%1,    Kenji%Hashimoto%NULL%0,    Kenji%Hashimoto%NULL%0,    Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,    Jun%Wang%NULL%0,    Chenggang%Luo%NULL%1,    Sheng%Hu%NULL%1,    Xi%Lin%NULL%1,    Aimee E.%Anderson%NULL%1,    Eduardo%Bruera%NULL%1,    Xiaoxin%Yang%NULL%1,    Shaozhong%Wei%NULL%1,    Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,    Zheng Feei%Ma%NULL%0,    Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,    Riyu%Pan%NULL%0,    Xiaoyang%Wan%NULL%0,    Yilin%Tan%NULL%0,    Linkang%Xu%NULL%0,    Roger S.%McIntyre%NULL%1,    Faith N.%Choo%NULL%1,    Bach%Tran%NULL%1,    Roger%Ho%NULL%1,    Vijay K.%Sharma%NULL%0,    Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,    Ariella%Grossman-Giron%NULL%1,    Yuval%Bloch%NULL%1,    Yael%Mayer%NULL%1,    Noga%Shiffman%NULL%1,    Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,    Philip J.%Corr%NULL%2,    Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,    Li-Gang%Zhang%NULL%1,    Lei-Lei%Wang%NULL%1,    Zhao-Chang%Guo%NULL%1,    Jing-Qi%Wang%NULL%1,    Jin-Cheng%Chen%NULL%1,    Mei%Liu%NULL%1,    Xi%Chen%NULL%0,    Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,    Baoren%Tu%NULL%0,    Jing%Ma%NULL%0,    Limin%Chen%NULL%0,    Lei%Fu%NULL%0,    Yongfang%Jiang%NULL%0,    Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,    Xiaoming%Huang%NULL%1,    Shuai%Zhang%NULL%1,    Jinrong%Yang%NULL%1,    Lin%Yang%NULL%0,    Min%Xu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,    Zhenxin%Liao%NULL%0,    Haojie%Huang%NULL%0,    Boyue%Jiang%NULL%0,    Xueyan%Zhang%NULL%0,    Yingwen%Wang%NULL%0,    Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,    Simeng%Ma%NULL%0,    Min%Chen%NULL%0,    Jun%Yang%NULL%0,    Ying%Wang%NULL%0,    Ruiting%Li%NULL%0,    Lihua%Yao%NULL%0,    Hanping%Bai%NULL%0,    Zhongxiang%Cai%NULL%0,    Bing%Xiang Yang%NULL%0,    Shaohua%Hu%NULL%0,    Kerang%Zhang%NULL%0,    Gaohua%Wang%NULL%0,    Ci%Ma%NULL%0,    Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,    Ziwei%Fang%NULL%0,    Guoqiang%Hou%NULL%0,    Mei%Han%NULL%0,    Xinrong%Xu%NULL%0,    Jiaxin%Dong%NULL%0,    Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,    Simeng%Ma%NULL%0,    Ying%Wang%NULL%0,    Zhongxiang%Cai%NULL%0,    Jianbo%Hu%NULL%0,    Ning%Wei%NULL%0,    Jiang%Wu%NULL%0,    Hui%Du%NULL%0,    Tingting%Chen%NULL%0,    Ruiting%Li%NULL%0,    Huawei%Tan%NULL%0,    Lijun%Kang%NULL%0,    Lihua%Yao%NULL%0,    Manli%Huang%NULL%0,    Huafen%Wang%NULL%0,    Gaohua%Wang%NULL%0,    Zhongchun%Liu%NULL%0,    Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,    Lan%Deng%NULL%0,    Lan%Deng%NULL%0,    Liyan%Zhang%NULL%0,    Qiuyan%Lang%NULL%0,    Chunyan%Liao%NULL%0,    Nannan%Wang%NULL%0,    Mingqin%Qin%2026142822@qq.com%0,    Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,    Yilin%Wang%NULL%1,    Jia%Xue%NULL%1,    Nan%Zhao%NULL%1,    Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,    Yun-zhi%Yang%NULL%0,    Xiao-Ming%Zhang%NULL%0,    Xinying%Xu%NULL%0,    Xinying%Xu%NULL%0,    Qing-Li%Dou%NULL%0,    Wen-Wu%Zhang%NULL%0,    Andy S. K.%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,    Yan%Zhang%NULL%0,    Desheng%Kong%NULL%0,    Shiyue%Li%NULL%0,    Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,    Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,    Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,    Elena%Del Fante%edelfante@hotmail.it%1,    Rosanna%De Pace%Rosannadepace@libero.it%1,    Antonino%Urso%antonino.urso@tin.it%1,    Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,     Berta%Ausín%NULL%1,     Miguel Ángel%Castellanos%NULL%1,     Jesús%Saiz%NULL%1,     Aída%López-Gómez%NULL%1,     Carolina%Ugidos%NULL%1,     Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,     Riyu%Pan%NULL%0,     Riyu%Pan%NULL%0,     Xiaoyang%Wan%NULL%0,     Yilin%Tan%NULL%0,     Linkang%Xu%NULL%0,     Cyrus S.%Ho%NULL%0,     Roger C.%Ho%NULL%0,     Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,     Qian%Xia%NULL%1,     Zhenzhen%Xiong%NULL%1,     Zhixiong%Li%NULL%1,     Weiyi%Xiang%NULL%1,     Yiwen%Yuan%NULL%1,     Yaya%Liu%NULL%1,     Zhe%Li%NULL%1,     Kenji%Hashimoto%NULL%0,     Kenji%Hashimoto%NULL%0,     Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,     Jun%Wang%NULL%0,     Chenggang%Luo%NULL%1,     Sheng%Hu%NULL%1,     Xi%Lin%NULL%1,     Aimee E.%Anderson%NULL%1,     Eduardo%Bruera%NULL%1,     Xiaoxin%Yang%NULL%1,     Shaozhong%Wei%NULL%1,     Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,     Zheng Feei%Ma%NULL%0,     Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,     Riyu%Pan%NULL%0,     Xiaoyang%Wan%NULL%0,     Yilin%Tan%NULL%0,     Linkang%Xu%NULL%0,     Roger S.%McIntyre%NULL%1,     Faith N.%Choo%NULL%1,     Bach%Tran%NULL%1,     Roger%Ho%NULL%1,     Vijay K.%Sharma%NULL%0,     Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,     Ariella%Grossman-Giron%NULL%1,     Yuval%Bloch%NULL%1,     Yael%Mayer%NULL%1,     Noga%Shiffman%NULL%1,     Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,     Philip J.%Corr%NULL%2,     Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,     Li-Gang%Zhang%NULL%1,     Lei-Lei%Wang%NULL%1,     Zhao-Chang%Guo%NULL%1,     Jing-Qi%Wang%NULL%1,     Jin-Cheng%Chen%NULL%1,     Mei%Liu%NULL%1,     Xi%Chen%NULL%0,     Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,     Baoren%Tu%NULL%0,     Jing%Ma%NULL%0,     Limin%Chen%NULL%0,     Lei%Fu%NULL%0,     Yongfang%Jiang%NULL%0,     Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,     Xiaoming%Huang%NULL%1,     Shuai%Zhang%NULL%1,     Jinrong%Yang%NULL%1,     Lin%Yang%NULL%0,     Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,     Zhenxin%Liao%NULL%0,     Haojie%Huang%NULL%0,     Boyue%Jiang%NULL%0,     Xueyan%Zhang%NULL%0,     Yingwen%Wang%NULL%0,     Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,     Simeng%Ma%NULL%0,     Min%Chen%NULL%0,     Jun%Yang%NULL%0,     Ying%Wang%NULL%0,     Ruiting%Li%NULL%0,     Lihua%Yao%NULL%0,     Hanping%Bai%NULL%0,     Zhongxiang%Cai%NULL%0,     Bing%Xiang Yang%NULL%0,     Shaohua%Hu%NULL%0,     Kerang%Zhang%NULL%0,     Gaohua%Wang%NULL%0,     Ci%Ma%NULL%0,     Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,     Ziwei%Fang%NULL%0,     Guoqiang%Hou%NULL%0,     Mei%Han%NULL%0,     Xinrong%Xu%NULL%0,     Jiaxin%Dong%NULL%0,     Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,     Simeng%Ma%NULL%0,     Ying%Wang%NULL%0,     Zhongxiang%Cai%NULL%0,     Jianbo%Hu%NULL%0,     Ning%Wei%NULL%0,     Jiang%Wu%NULL%0,     Hui%Du%NULL%0,     Tingting%Chen%NULL%0,     Ruiting%Li%NULL%0,     Huawei%Tan%NULL%0,     Lijun%Kang%NULL%0,     Lihua%Yao%NULL%0,     Manli%Huang%NULL%0,     Huafen%Wang%NULL%0,     Gaohua%Wang%NULL%0,     Zhongchun%Liu%NULL%0,     Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,     Lan%Deng%NULL%0,     Lan%Deng%NULL%0,     Liyan%Zhang%NULL%0,     Qiuyan%Lang%NULL%0,     Chunyan%Liao%NULL%0,     Nannan%Wang%NULL%0,     Mingqin%Qin%2026142822@qq.com%0,     Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,     Yilin%Wang%NULL%1,     Jia%Xue%NULL%1,     Nan%Zhao%NULL%1,     Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,     Yun-zhi%Yang%NULL%0,     Xiao-Ming%Zhang%NULL%0,     Xinying%Xu%NULL%0,     Xinying%Xu%NULL%0,     Qing-Li%Dou%NULL%0,     Wen-Wu%Zhang%NULL%0,     Andy S. K.%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,     Yan%Zhang%NULL%0,     Desheng%Kong%NULL%0,     Shiyue%Li%NULL%0,     Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,     Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,     Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,     Elena%Del Fante%edelfante@hotmail.it%1,     Rosanna%De Pace%Rosannadepace@libero.it%1,     Antonino%Urso%antonino.urso@tin.it%1,     Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,      Berta%Ausín%NULL%1,      Miguel Ángel%Castellanos%NULL%1,      Jesús%Saiz%NULL%1,      Aída%López-Gómez%NULL%1,      Carolina%Ugidos%NULL%1,      Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,      Riyu%Pan%NULL%0,      Riyu%Pan%NULL%0,      Xiaoyang%Wan%NULL%0,      Yilin%Tan%NULL%0,      Linkang%Xu%NULL%0,      Cyrus S.%Ho%NULL%0,      Roger C.%Ho%NULL%0,      Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,      Qian%Xia%NULL%1,      Zhenzhen%Xiong%NULL%1,      Zhixiong%Li%NULL%1,      Weiyi%Xiang%NULL%1,      Yiwen%Yuan%NULL%1,      Yaya%Liu%NULL%1,      Zhe%Li%NULL%1,      Kenji%Hashimoto%NULL%0,      Kenji%Hashimoto%NULL%0,      Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,      Jun%Wang%NULL%0,      Chenggang%Luo%NULL%1,      Sheng%Hu%NULL%1,      Xi%Lin%NULL%1,      Aimee E.%Anderson%NULL%1,      Eduardo%Bruera%NULL%1,      Xiaoxin%Yang%NULL%1,      Shaozhong%Wei%NULL%1,      Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,      Zheng Feei%Ma%NULL%0,      Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,      Riyu%Pan%NULL%0,      Xiaoyang%Wan%NULL%0,      Yilin%Tan%NULL%0,      Linkang%Xu%NULL%0,      Roger S.%McIntyre%NULL%1,      Faith N.%Choo%NULL%1,      Bach%Tran%NULL%1,      Roger%Ho%NULL%1,      Vijay K.%Sharma%NULL%0,      Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,      Ariella%Grossman-Giron%NULL%1,      Yuval%Bloch%NULL%1,      Yael%Mayer%NULL%1,      Noga%Shiffman%NULL%1,      Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,      Philip J.%Corr%NULL%2,      Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,      Li-Gang%Zhang%NULL%1,      Lei-Lei%Wang%NULL%1,      Zhao-Chang%Guo%NULL%1,      Jing-Qi%Wang%NULL%1,      Jin-Cheng%Chen%NULL%1,      Mei%Liu%NULL%1,      Xi%Chen%NULL%0,      Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,      Baoren%Tu%NULL%0,      Jing%Ma%NULL%0,      Limin%Chen%NULL%0,      Lei%Fu%NULL%0,      Yongfang%Jiang%NULL%0,      Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,      Xiaoming%Huang%NULL%1,      Shuai%Zhang%NULL%1,      Jinrong%Yang%NULL%1,      Lin%Yang%NULL%0,      Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,      Zhenxin%Liao%NULL%0,      Haojie%Huang%NULL%0,      Boyue%Jiang%NULL%0,      Xueyan%Zhang%NULL%0,      Yingwen%Wang%NULL%0,      Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,      Simeng%Ma%NULL%0,      Min%Chen%NULL%0,      Jun%Yang%NULL%0,      Ying%Wang%NULL%0,      Ruiting%Li%NULL%0,      Lihua%Yao%NULL%0,      Hanping%Bai%NULL%0,      Zhongxiang%Cai%NULL%0,      Bing%Xiang Yang%NULL%0,      Shaohua%Hu%NULL%0,      Kerang%Zhang%NULL%0,      Gaohua%Wang%NULL%0,      Ci%Ma%NULL%0,      Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,      Ziwei%Fang%NULL%0,      Guoqiang%Hou%NULL%0,      Mei%Han%NULL%0,      Xinrong%Xu%NULL%0,      Jiaxin%Dong%NULL%0,      Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,      Simeng%Ma%NULL%0,      Ying%Wang%NULL%0,      Zhongxiang%Cai%NULL%0,      Jianbo%Hu%NULL%0,      Ning%Wei%NULL%0,      Jiang%Wu%NULL%0,      Hui%Du%NULL%0,      Tingting%Chen%NULL%0,      Ruiting%Li%NULL%0,      Huawei%Tan%NULL%0,      Lijun%Kang%NULL%0,      Lihua%Yao%NULL%0,      Manli%Huang%NULL%0,      Huafen%Wang%NULL%0,      Gaohua%Wang%NULL%0,      Zhongchun%Liu%NULL%0,      Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,      Lan%Deng%NULL%0,      Lan%Deng%NULL%0,      Liyan%Zhang%NULL%0,      Qiuyan%Lang%NULL%0,      Chunyan%Liao%NULL%0,      Nannan%Wang%NULL%0,      Mingqin%Qin%2026142822@qq.com%0,      Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,      Yilin%Wang%NULL%1,      Jia%Xue%NULL%1,      Nan%Zhao%NULL%1,      Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,      Yun-zhi%Yang%NULL%0,      Xiao-Ming%Zhang%NULL%0,      Xinying%Xu%NULL%0,      Xinying%Xu%NULL%0,      Qing-Li%Dou%NULL%0,      Wen-Wu%Zhang%NULL%0,      Andy S. K.%Cheng%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,      Yan%Zhang%NULL%0,      Desheng%Kong%NULL%0,      Shiyue%Li%NULL%0,      Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,      Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,      Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,      Elena%Del Fante%edelfante@hotmail.it%1,      Rosanna%De Pace%Rosannadepace@libero.it%1,      Antonino%Urso%antonino.urso@tin.it%1,      Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -1149,7 +1329,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>160</v>
+        <v>224</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1178,7 +1358,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>162</v>
+        <v>225</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1207,7 +1387,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>164</v>
+        <v>226</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -1265,7 +1445,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>166</v>
+        <v>227</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1294,7 +1474,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>167</v>
+        <v>228</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1352,7 +1532,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>168</v>
+        <v>229</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1381,7 +1561,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>230</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1439,7 +1619,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>170</v>
+        <v>231</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -1468,7 +1648,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>171</v>
+        <v>232</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1497,7 +1677,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>173</v>
+        <v>233</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -1555,7 +1735,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -1584,7 +1764,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>175</v>
+        <v>235</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -1613,7 +1793,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>176</v>
+        <v>236</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1642,7 +1822,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -1671,7 +1851,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>178</v>
+        <v>238</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -1700,7 +1880,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>179</v>
+        <v>239</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -1729,7 +1909,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>180</v>
+        <v>240</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -1758,7 +1938,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -1787,7 +1967,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>182</v>
+        <v>242</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -1845,7 +2025,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>183</v>
+        <v>243</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1278" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="297">
   <si>
     <t>Doi</t>
   </si>
@@ -982,6 +982,173 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,      Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,      Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,      Elena%Del Fante%edelfante@hotmail.it%1,      Rosanna%De Pace%Rosannadepace@libero.it%1,      Antonino%Urso%antonino.urso@tin.it%1,      Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,       Berta%Ausín%NULL%1,       Miguel Ángel%Castellanos%NULL%1,       Jesús%Saiz%NULL%1,       Aída%López-Gómez%NULL%1,       Carolina%Ugidos%NULL%1,       Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,       Riyu%Pan%NULL%0,       Riyu%Pan%NULL%0,       Xiaoyang%Wan%NULL%0,       Yilin%Tan%NULL%0,       Linkang%Xu%NULL%0,       Cyrus S.%Ho%NULL%0,       Roger C.%Ho%NULL%0,       Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,       Qian%Xia%NULL%1,       Zhenzhen%Xiong%NULL%1,       Zhixiong%Li%NULL%1,       Weiyi%Xiang%NULL%1,       Yiwen%Yuan%NULL%1,       Yaya%Liu%NULL%1,       Zhe%Li%NULL%1,       Kenji%Hashimoto%NULL%0,       Kenji%Hashimoto%NULL%0,       Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Study on the public psychological states and its related factors during the outbreak of coronavirus disease 2019 (COVID-19) in some regions of China"</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0, Yu%Di%xref no email%0, Junjie%Ye%xref no email%0, Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-05-26</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,       Jun%Wang%NULL%1,       Chenggang%Luo%NULL%1,       Sheng%Hu%NULL%1,       Xi%Lin%NULL%1,       Aimee E.%Anderson%NULL%1,       Eduardo%Bruera%NULL%1,       Xiaoxin%Yang%NULL%1,       Shaozhong%Wei%NULL%1,       Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,       Zheng Feei%Ma%NULL%0,       Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,       Riyu%Pan%NULL%0,       Xiaoyang%Wan%NULL%0,       Yilin%Tan%NULL%0,       Linkang%Xu%NULL%0,       Roger S.%McIntyre%NULL%1,       Faith N.%Choo%NULL%1,       Bach%Tran%NULL%1,       Roger%Ho%NULL%1,       Vijay K.%Sharma%NULL%0,       Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,       Ariella%Grossman-Giron%NULL%1,       Yuval%Bloch%NULL%1,       Yael%Mayer%NULL%1,       Noga%Shiffman%NULL%1,       Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,       Philip J.%Corr%NULL%2,       Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,       Li-Gang%Zhang%NULL%1,       Lei-Lei%Wang%NULL%1,       Zhao-Chang%Guo%NULL%1,       Jing-Qi%Wang%NULL%1,       Jin-Cheng%Chen%NULL%1,       Mei%Liu%NULL%1,       Xi%Chen%NULL%1,       Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,       Baoren%Tu%NULL%0,       Jing%Ma%NULL%0,       Limin%Chen%NULL%0,       Lei%Fu%NULL%0,       Yongfang%Jiang%NULL%0,       Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Niveles de estr\u00e9s, ansiedad y depresi\u00f3n en la primera fase del brote del COVID-19 en una muestra recogida en el norte de Espa\u00f1a"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"En marzo de 2020, el virus SARS-CoV-2 procedente de China ha llegado a Espa\u00f1a y desde el 14 de marzo se ha declarado el estado de alarma en todo el Estado espa\u00f1ol, llevando al confinamiento a toda la poblaci\u00f3n.
+ La presente investigaci\u00f3n se contextualiza en la Comunidad Aut\u00f3noma Vasca (situada al norte de Espa\u00f1a).
+ Se han analizado los niveles de estr\u00e9s, ansiedad y depresi\u00f3n a la llegada del virus y se han estudiado los niveles de sintomatolog\u00eda psicol\u00f3gica seg\u00fan edad, cronicidad y confinamiento.
+ Se ha recogido una muestra de 976 personas y la medici\u00f3n de las variables ansiedad, estr\u00e9s y depresi\u00f3n se ha hecho mediante la escala DASS (Escala de Depresi\u00f3n, Ansiedad y Estr\u00e9s).
+ Los resultados demuestran que, aunque los niveles de sintomatolog\u00eda han sido bajos en general al principio de la alarma, la poblaci\u00f3n m\u00e1s joven y con enfermedades cr\u00f3nicas ha referido sintomatolog\u00eda m\u00e1s alta que el resto de poblaci\u00f3n.
+ Tambi\u00e9n se ha detectado un mayor nivel de sintomatolog\u00eda a partir del confinamiento, donde las personas tienen prohibido salir de sus casas.
+ Se prev\u00e9 que la sintomatolog\u00eda aumentar\u00e1 seg\u00fan vaya transcurriendo el confinamiento.
+ Se defienden intervenciones psicol\u00f3gicas de prevenci\u00f3n y tratamiento para bajar el impacto psicol\u00f3gico que pueda crear esta pandemia.
+</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1, Maria%Dosil-Santamaria%xref no email%1, Maitane%Picaza-Gorrochategui%xref no email%1, Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,       Xiaoming%Huang%NULL%1,       Shuai%Zhang%NULL%1,       Jinrong%Yang%NULL%1,       Lin%Yang%NULL%0,       Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,       Zhenxin%Liao%NULL%0,       Haojie%Huang%NULL%0,       Boyue%Jiang%NULL%0,       Xueyan%Zhang%NULL%0,       Yingwen%Wang%NULL%0,       Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,       Simeng%Ma%NULL%0,       Min%Chen%NULL%0,       Jun%Yang%NULL%0,       Ying%Wang%NULL%0,       Ruiting%Li%NULL%0,       Lihua%Yao%NULL%0,       Hanping%Bai%NULL%0,       Zhongxiang%Cai%NULL%0,       Bing%Xiang Yang%NULL%0,       Shaohua%Hu%NULL%0,       Kerang%Zhang%NULL%0,       Gaohua%Wang%NULL%0,       Ci%Ma%NULL%0,       Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,       Ziwei%Fang%NULL%0,       Guoqiang%Hou%NULL%0,       Mei%Han%NULL%0,       Xinrong%Xu%NULL%0,       Jiaxin%Dong%NULL%0,       Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,       Simeng%Ma%NULL%0,       Ying%Wang%NULL%0,       Zhongxiang%Cai%NULL%0,       Jianbo%Hu%NULL%0,       Ning%Wei%NULL%0,       Jiang%Wu%NULL%0,       Hui%Du%NULL%0,       Tingting%Chen%NULL%0,       Ruiting%Li%NULL%0,       Huawei%Tan%NULL%0,       Lijun%Kang%NULL%0,       Lihua%Yao%NULL%0,       Manli%Huang%NULL%0,       Huafen%Wang%NULL%0,       Gaohua%Wang%NULL%0,       Zhongchun%Liu%NULL%0,       Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,       Lan%Deng%NULL%0,       Lan%Deng%NULL%0,       Liyan%Zhang%NULL%0,       Qiuyan%Lang%NULL%0,       Chunyan%Liao%NULL%0,       Nannan%Wang%NULL%0,       Mingqin%Qin%2026142822@qq.com%0,       Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,       Yilin%Wang%NULL%1,       Jia%Xue%NULL%1,       Nan%Zhao%NULL%1,       Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,       Yun-zhi%Yang%NULL%1,       Xiao-Ming%Zhang%NULL%1,       Xinying%Xu%NULL%2,       Xinying%Xu%NULL%0,       Qing-Li%Dou%NULL%1,       Wen-Wu%Zhang%NULL%1,       Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,       Yan%Zhang%NULL%0,       Desheng%Kong%NULL%0,       Shiyue%Li%NULL%0,       Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>"Frequency of Generalized Anxiety Disorder in Chinese Primary Care"</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1, Sunfang%Jiang%xref no email%1, Hua%Yang%xref no email%1, Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2022-12-01</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,       Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,       Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,       Elena%Del Fante%edelfante@hotmail.it%1,       Rosanna%De Pace%Rosannadepace@libero.it%1,       Antonino%Urso%antonino.urso@tin.it%1,       Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,        Berta%Ausín%NULL%1,        Miguel Ángel%Castellanos%NULL%1,        Jesús%Saiz%NULL%1,        Aída%López-Gómez%NULL%1,        Carolina%Ugidos%NULL%1,        Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,        Riyu%Pan%NULL%0,        Riyu%Pan%NULL%0,        Xiaoyang%Wan%NULL%0,        Yilin%Tan%NULL%0,        Linkang%Xu%NULL%0,        Cyrus S.%Ho%NULL%0,        Roger C.%Ho%NULL%0,        Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,        Qian%Xia%NULL%1,        Zhenzhen%Xiong%NULL%1,        Zhixiong%Li%NULL%1,        Weiyi%Xiang%NULL%1,        Yiwen%Yuan%NULL%1,        Yaya%Liu%NULL%1,        Zhe%Li%NULL%1,        Kenji%Hashimoto%NULL%0,        Kenji%Hashimoto%NULL%0,        Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,  Yu%Di%xref no email%0,  Junjie%Ye%xref no email%0,  Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,        Jun%Wang%NULL%1,        Chenggang%Luo%NULL%1,        Sheng%Hu%NULL%1,        Xi%Lin%NULL%1,        Aimee E.%Anderson%NULL%1,        Eduardo%Bruera%NULL%1,        Xiaoxin%Yang%NULL%1,        Shaozhong%Wei%NULL%1,        Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,        Zheng Feei%Ma%NULL%0,        Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,        Riyu%Pan%NULL%0,        Xiaoyang%Wan%NULL%0,        Yilin%Tan%NULL%0,        Linkang%Xu%NULL%0,        Roger S.%McIntyre%NULL%1,        Faith N.%Choo%NULL%1,        Bach%Tran%NULL%1,        Roger%Ho%NULL%1,        Vijay K.%Sharma%NULL%0,        Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,        Ariella%Grossman-Giron%NULL%1,        Yuval%Bloch%NULL%1,        Yael%Mayer%NULL%1,        Noga%Shiffman%NULL%1,        Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,        Philip J.%Corr%NULL%2,        Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,        Li-Gang%Zhang%NULL%1,        Lei-Lei%Wang%NULL%1,        Zhao-Chang%Guo%NULL%1,        Jing-Qi%Wang%NULL%1,        Jin-Cheng%Chen%NULL%1,        Mei%Liu%NULL%1,        Xi%Chen%NULL%1,        Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,        Baoren%Tu%NULL%0,        Jing%Ma%NULL%0,        Limin%Chen%NULL%0,        Lei%Fu%NULL%0,        Yongfang%Jiang%NULL%0,        Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,  Maria%Dosil-Santamaria%xref no email%1,  Maitane%Picaza-Gorrochategui%xref no email%1,  Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,        Xiaoming%Huang%NULL%1,        Shuai%Zhang%NULL%1,        Jinrong%Yang%NULL%1,        Lin%Yang%NULL%0,        Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,        Zhenxin%Liao%NULL%0,        Haojie%Huang%NULL%0,        Boyue%Jiang%NULL%0,        Xueyan%Zhang%NULL%0,        Yingwen%Wang%NULL%0,        Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,        Simeng%Ma%NULL%0,        Min%Chen%NULL%0,        Jun%Yang%NULL%0,        Ying%Wang%NULL%0,        Ruiting%Li%NULL%0,        Lihua%Yao%NULL%0,        Hanping%Bai%NULL%0,        Zhongxiang%Cai%NULL%0,        Bing%Xiang Yang%NULL%0,        Shaohua%Hu%NULL%0,        Kerang%Zhang%NULL%0,        Gaohua%Wang%NULL%0,        Ci%Ma%NULL%0,        Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,        Ziwei%Fang%NULL%0,        Guoqiang%Hou%NULL%0,        Mei%Han%NULL%0,        Xinrong%Xu%NULL%0,        Jiaxin%Dong%NULL%0,        Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,        Simeng%Ma%NULL%0,        Ying%Wang%NULL%0,        Zhongxiang%Cai%NULL%0,        Jianbo%Hu%NULL%0,        Ning%Wei%NULL%0,        Jiang%Wu%NULL%0,        Hui%Du%NULL%0,        Tingting%Chen%NULL%0,        Ruiting%Li%NULL%0,        Huawei%Tan%NULL%0,        Lijun%Kang%NULL%0,        Lihua%Yao%NULL%0,        Manli%Huang%NULL%0,        Huafen%Wang%NULL%0,        Gaohua%Wang%NULL%0,        Zhongchun%Liu%NULL%0,        Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,        Lan%Deng%NULL%0,        Lan%Deng%NULL%0,        Liyan%Zhang%NULL%0,        Qiuyan%Lang%NULL%0,        Chunyan%Liao%NULL%0,        Nannan%Wang%NULL%0,        Mingqin%Qin%2026142822@qq.com%0,        Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,        Yilin%Wang%NULL%1,        Jia%Xue%NULL%1,        Nan%Zhao%NULL%1,        Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,        Yun-zhi%Yang%NULL%1,        Xiao-Ming%Zhang%NULL%1,        Xinying%Xu%NULL%2,        Xinying%Xu%NULL%0,        Qing-Li%Dou%NULL%1,        Wen-Wu%Zhang%NULL%1,        Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,        Yan%Zhang%NULL%0,        Desheng%Kong%NULL%0,        Shiyue%Li%NULL%0,        Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,  Sunfang%Jiang%xref no email%1,  Hua%Yang%xref no email%1,  Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,        Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,        Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,        Elena%Del Fante%edelfante@hotmail.it%1,        Rosanna%De Pace%Rosannadepace@libero.it%1,        Antonino%Urso%antonino.urso@tin.it%1,        Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -1329,7 +1496,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1358,7 +1525,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>225</v>
+        <v>275</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1387,7 +1554,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>226</v>
+        <v>276</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -1410,22 +1577,22 @@
         <v>44197.0</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>247</v>
       </c>
       <c r="D5" t="s">
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>277</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="I5" t="s">
         <v>165</v>
@@ -1445,7 +1612,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>227</v>
+        <v>278</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1474,7 +1641,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1532,7 +1699,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>229</v>
+        <v>280</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1561,7 +1728,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>230</v>
+        <v>281</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1619,7 +1786,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>231</v>
+        <v>282</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -1648,7 +1815,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>232</v>
+        <v>283</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1677,7 +1844,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>233</v>
+        <v>284</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -1700,22 +1867,22 @@
         <v>43951.0</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>258</v>
       </c>
       <c r="D15" t="s">
-        <v>34</v>
+        <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>285</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="H15" t="s">
-        <v>57</v>
+        <v>250</v>
       </c>
       <c r="I15" t="s">
         <v>165</v>
@@ -1735,7 +1902,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>234</v>
+        <v>286</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -1764,7 +1931,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>235</v>
+        <v>287</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -1793,7 +1960,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>236</v>
+        <v>288</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1822,7 +1989,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>289</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -1851,7 +2018,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>238</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -1880,7 +2047,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>239</v>
+        <v>291</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -1909,7 +2076,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -1938,7 +2105,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>241</v>
+        <v>293</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -1967,7 +2134,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -1990,22 +2157,22 @@
         <v>42076.0</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>270</v>
       </c>
       <c r="D25" t="s">
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>37</v>
+        <v>295</v>
       </c>
       <c r="F25" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G25" t="s">
-        <v>39</v>
+        <v>249</v>
       </c>
       <c r="H25" t="s">
-        <v>57</v>
+        <v>272</v>
       </c>
       <c r="I25" t="s">
         <v>165</v>
@@ -2025,7 +2192,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>243</v>
+        <v>296</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1642" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="343">
   <si>
     <t>Doi</t>
   </si>
@@ -1149,6 +1149,144 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,        Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,        Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,        Elena%Del Fante%edelfante@hotmail.it%1,        Rosanna%De Pace%Rosannadepace@libero.it%1,        Antonino%Urso%antonino.urso@tin.it%1,        Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,         Berta%Ausín%NULL%1,         Miguel Ángel%Castellanos%NULL%1,         Jesús%Saiz%NULL%1,         Aída%López-Gómez%NULL%1,         Carolina%Ugidos%NULL%1,         Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,         Riyu%Pan%NULL%0,         Riyu%Pan%NULL%0,         Xiaoyang%Wan%NULL%0,         Yilin%Tan%NULL%0,         Linkang%Xu%NULL%0,         Cyrus S.%Ho%NULL%0,         Roger C.%Ho%NULL%0,         Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,         Qian%Xia%NULL%1,         Zhenzhen%Xiong%NULL%1,         Zhixiong%Li%NULL%1,         Weiyi%Xiang%NULL%1,         Yiwen%Yuan%NULL%1,         Yaya%Liu%NULL%1,         Zhe%Li%NULL%1,         Kenji%Hashimoto%NULL%0,         Kenji%Hashimoto%NULL%0,         Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,   Yu%Di%xref no email%0,   Junjie%Ye%xref no email%0,   Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,         Jun%Wang%NULL%1,         Chenggang%Luo%NULL%1,         Sheng%Hu%NULL%1,         Xi%Lin%NULL%1,         Aimee E.%Anderson%NULL%1,         Eduardo%Bruera%NULL%1,         Xiaoxin%Yang%NULL%1,         Shaozhong%Wei%NULL%1,         Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,         Zheng Feei%Ma%NULL%0,         Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,         Riyu%Pan%NULL%0,         Xiaoyang%Wan%NULL%0,         Yilin%Tan%NULL%0,         Linkang%Xu%NULL%0,         Roger S.%McIntyre%NULL%1,         Faith N.%Choo%NULL%1,         Bach%Tran%NULL%1,         Roger%Ho%NULL%1,         Vijay K.%Sharma%NULL%0,         Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,         Ariella%Grossman-Giron%NULL%1,         Yuval%Bloch%NULL%1,         Yael%Mayer%NULL%1,         Noga%Shiffman%NULL%1,         Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,         Philip J.%Corr%NULL%2,         Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,         Li-Gang%Zhang%NULL%1,         Lei-Lei%Wang%NULL%1,         Zhao-Chang%Guo%NULL%1,         Jing-Qi%Wang%NULL%1,         Jin-Cheng%Chen%NULL%1,         Mei%Liu%NULL%1,         Xi%Chen%NULL%1,         Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,         Baoren%Tu%NULL%0,         Jing%Ma%NULL%0,         Limin%Chen%NULL%0,         Lei%Fu%NULL%0,         Yongfang%Jiang%NULL%0,         Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,   Maria%Dosil-Santamaria%xref no email%1,   Maitane%Picaza-Gorrochategui%xref no email%1,   Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,         Xiaoming%Huang%NULL%1,         Shuai%Zhang%NULL%1,         Jinrong%Yang%NULL%1,         Lin%Yang%NULL%0,         Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,         Zhenxin%Liao%NULL%0,         Haojie%Huang%NULL%0,         Boyue%Jiang%NULL%0,         Xueyan%Zhang%NULL%0,         Yingwen%Wang%NULL%0,         Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,         Simeng%Ma%NULL%0,         Min%Chen%NULL%0,         Jun%Yang%NULL%0,         Ying%Wang%NULL%0,         Ruiting%Li%NULL%0,         Lihua%Yao%NULL%0,         Hanping%Bai%NULL%0,         Zhongxiang%Cai%NULL%0,         Bing%Xiang Yang%NULL%0,         Shaohua%Hu%NULL%0,         Kerang%Zhang%NULL%0,         Gaohua%Wang%NULL%0,         Ci%Ma%NULL%0,         Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,         Ziwei%Fang%NULL%0,         Guoqiang%Hou%NULL%0,         Mei%Han%NULL%0,         Xinrong%Xu%NULL%0,         Jiaxin%Dong%NULL%0,         Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,         Simeng%Ma%NULL%0,         Ying%Wang%NULL%0,         Zhongxiang%Cai%NULL%0,         Jianbo%Hu%NULL%0,         Ning%Wei%NULL%0,         Jiang%Wu%NULL%0,         Hui%Du%NULL%0,         Tingting%Chen%NULL%0,         Ruiting%Li%NULL%0,         Huawei%Tan%NULL%0,         Lijun%Kang%NULL%0,         Lihua%Yao%NULL%0,         Manli%Huang%NULL%0,         Huafen%Wang%NULL%0,         Gaohua%Wang%NULL%0,         Zhongchun%Liu%NULL%0,         Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,         Lan%Deng%NULL%0,         Lan%Deng%NULL%0,         Liyan%Zhang%NULL%0,         Qiuyan%Lang%NULL%0,         Chunyan%Liao%NULL%0,         Nannan%Wang%NULL%0,         Mingqin%Qin%2026142822@qq.com%0,         Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,         Yilin%Wang%NULL%1,         Jia%Xue%NULL%1,         Nan%Zhao%NULL%1,         Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,         Yun-zhi%Yang%NULL%1,         Xiao-Ming%Zhang%NULL%1,         Xinying%Xu%NULL%2,         Xinying%Xu%NULL%0,         Qing-Li%Dou%NULL%1,         Wen-Wu%Zhang%NULL%1,         Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,         Yan%Zhang%NULL%0,         Desheng%Kong%NULL%0,         Shiyue%Li%NULL%0,         Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,   Sunfang%Jiang%xref no email%1,   Hua%Yang%xref no email%1,   Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,         Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,         Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,         Elena%Del Fante%edelfante@hotmail.it%1,         Rosanna%De Pace%Rosannadepace@libero.it%1,         Antonino%Urso%antonino.urso@tin.it%1,         Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,          Berta%Ausín%NULL%1,          Miguel Ángel%Castellanos%NULL%1,          Jesús%Saiz%NULL%1,          Aída%López-Gómez%NULL%1,          Carolina%Ugidos%NULL%1,          Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,          Riyu%Pan%NULL%0,          Riyu%Pan%NULL%0,          Xiaoyang%Wan%NULL%0,          Yilin%Tan%NULL%0,          Linkang%Xu%NULL%0,          Cyrus S.%Ho%NULL%0,          Roger C.%Ho%NULL%0,          Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,          Qian%Xia%NULL%1,          Zhenzhen%Xiong%NULL%1,          Zhixiong%Li%NULL%1,          Weiyi%Xiang%NULL%1,          Yiwen%Yuan%NULL%1,          Yaya%Liu%NULL%1,          Zhe%Li%NULL%1,          Kenji%Hashimoto%NULL%0,          Kenji%Hashimoto%NULL%0,          Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,    Yu%Di%xref no email%0,    Junjie%Ye%xref no email%0,    Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,          Jun%Wang%NULL%1,          Chenggang%Luo%NULL%1,          Sheng%Hu%NULL%1,          Xi%Lin%NULL%1,          Aimee E.%Anderson%NULL%1,          Eduardo%Bruera%NULL%1,          Xiaoxin%Yang%NULL%1,          Shaozhong%Wei%NULL%1,          Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,          Zheng Feei%Ma%NULL%0,          Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,          Riyu%Pan%NULL%0,          Xiaoyang%Wan%NULL%0,          Yilin%Tan%NULL%0,          Linkang%Xu%NULL%0,          Roger S.%McIntyre%NULL%1,          Faith N.%Choo%NULL%1,          Bach%Tran%NULL%1,          Roger%Ho%NULL%1,          Vijay K.%Sharma%NULL%0,          Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,          Ariella%Grossman-Giron%NULL%1,          Yuval%Bloch%NULL%1,          Yael%Mayer%NULL%1,          Noga%Shiffman%NULL%1,          Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,          Philip J.%Corr%NULL%2,          Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,          Li-Gang%Zhang%NULL%1,          Lei-Lei%Wang%NULL%1,          Zhao-Chang%Guo%NULL%1,          Jing-Qi%Wang%NULL%1,          Jin-Cheng%Chen%NULL%1,          Mei%Liu%NULL%1,          Xi%Chen%NULL%1,          Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,          Baoren%Tu%NULL%0,          Jing%Ma%NULL%0,          Limin%Chen%NULL%0,          Lei%Fu%NULL%0,          Yongfang%Jiang%NULL%0,          Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,    Maria%Dosil-Santamaria%xref no email%1,    Maitane%Picaza-Gorrochategui%xref no email%1,    Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,          Xiaoming%Huang%NULL%1,          Shuai%Zhang%NULL%1,          Jinrong%Yang%NULL%1,          Lin%Yang%NULL%0,          Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,          Zhenxin%Liao%NULL%0,          Haojie%Huang%NULL%0,          Boyue%Jiang%NULL%0,          Xueyan%Zhang%NULL%0,          Yingwen%Wang%NULL%0,          Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,          Simeng%Ma%NULL%0,          Min%Chen%NULL%0,          Jun%Yang%NULL%0,          Ying%Wang%NULL%0,          Ruiting%Li%NULL%0,          Lihua%Yao%NULL%0,          Hanping%Bai%NULL%0,          Zhongxiang%Cai%NULL%0,          Bing%Xiang Yang%NULL%0,          Shaohua%Hu%NULL%0,          Kerang%Zhang%NULL%0,          Gaohua%Wang%NULL%0,          Ci%Ma%NULL%0,          Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,          Ziwei%Fang%NULL%0,          Guoqiang%Hou%NULL%0,          Mei%Han%NULL%0,          Xinrong%Xu%NULL%0,          Jiaxin%Dong%NULL%0,          Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,          Simeng%Ma%NULL%0,          Ying%Wang%NULL%0,          Zhongxiang%Cai%NULL%0,          Jianbo%Hu%NULL%0,          Ning%Wei%NULL%0,          Jiang%Wu%NULL%0,          Hui%Du%NULL%0,          Tingting%Chen%NULL%0,          Ruiting%Li%NULL%0,          Huawei%Tan%NULL%0,          Lijun%Kang%NULL%0,          Lihua%Yao%NULL%0,          Manli%Huang%NULL%0,          Huafen%Wang%NULL%0,          Gaohua%Wang%NULL%0,          Zhongchun%Liu%NULL%0,          Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,          Lan%Deng%NULL%0,          Lan%Deng%NULL%0,          Liyan%Zhang%NULL%0,          Qiuyan%Lang%NULL%0,          Chunyan%Liao%NULL%0,          Nannan%Wang%NULL%0,          Mingqin%Qin%2026142822@qq.com%0,          Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,          Yilin%Wang%NULL%1,          Jia%Xue%NULL%1,          Nan%Zhao%NULL%1,          Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,          Yun-zhi%Yang%NULL%1,          Xiao-Ming%Zhang%NULL%1,          Xinying%Xu%NULL%2,          Xinying%Xu%NULL%0,          Qing-Li%Dou%NULL%1,          Wen-Wu%Zhang%NULL%1,          Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,          Yan%Zhang%NULL%0,          Desheng%Kong%NULL%0,          Shiyue%Li%NULL%0,          Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,    Sunfang%Jiang%xref no email%1,    Hua%Yang%xref no email%1,    Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,          Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,          Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,          Elena%Del Fante%edelfante@hotmail.it%1,          Rosanna%De Pace%Rosannadepace@libero.it%1,          Antonino%Urso%antonino.urso@tin.it%1,          Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -1496,7 +1634,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>320</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1525,7 +1663,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>275</v>
+        <v>321</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1554,7 +1692,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>276</v>
+        <v>322</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -1583,7 +1721,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>323</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1612,7 +1750,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>324</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1641,7 +1779,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>325</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1699,7 +1837,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>326</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1728,7 +1866,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>327</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1786,7 +1924,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>328</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -1815,7 +1953,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>329</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1844,7 +1982,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>284</v>
+        <v>330</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -1873,7 +2011,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>285</v>
+        <v>331</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -1902,7 +2040,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>286</v>
+        <v>332</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -1931,7 +2069,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>287</v>
+        <v>333</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -1960,7 +2098,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -1989,7 +2127,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -2018,7 +2156,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>290</v>
+        <v>336</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -2047,7 +2185,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>337</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2076,7 +2214,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>292</v>
+        <v>338</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2105,7 +2243,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>293</v>
+        <v>339</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2134,7 +2272,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>294</v>
+        <v>340</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2163,7 +2301,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>295</v>
+        <v>341</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2192,7 +2330,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>296</v>
+        <v>342</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2006" uniqueCount="343">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="389">
   <si>
     <t>Doi</t>
   </si>
@@ -1287,6 +1287,144 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,          Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,          Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,          Elena%Del Fante%edelfante@hotmail.it%1,          Rosanna%De Pace%Rosannadepace@libero.it%1,          Antonino%Urso%antonino.urso@tin.it%1,          Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,           Berta%Ausín%NULL%1,           Miguel Ángel%Castellanos%NULL%1,           Jesús%Saiz%NULL%1,           Aída%López-Gómez%NULL%1,           Carolina%Ugidos%NULL%1,           Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,           Riyu%Pan%NULL%0,           Riyu%Pan%NULL%0,           Xiaoyang%Wan%NULL%0,           Yilin%Tan%NULL%0,           Linkang%Xu%NULL%0,           Cyrus S.%Ho%NULL%0,           Roger C.%Ho%NULL%0,           Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,           Qian%Xia%NULL%1,           Zhenzhen%Xiong%NULL%1,           Zhixiong%Li%NULL%1,           Weiyi%Xiang%NULL%1,           Yiwen%Yuan%NULL%1,           Yaya%Liu%NULL%1,           Zhe%Li%NULL%1,           Kenji%Hashimoto%NULL%0,           Kenji%Hashimoto%NULL%0,           Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,     Yu%Di%xref no email%0,     Junjie%Ye%xref no email%0,     Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,           Jun%Wang%NULL%1,           Chenggang%Luo%NULL%1,           Sheng%Hu%NULL%1,           Xi%Lin%NULL%1,           Aimee E.%Anderson%NULL%1,           Eduardo%Bruera%NULL%1,           Xiaoxin%Yang%NULL%1,           Shaozhong%Wei%NULL%1,           Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,           Zheng Feei%Ma%NULL%0,           Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,           Riyu%Pan%NULL%0,           Xiaoyang%Wan%NULL%0,           Yilin%Tan%NULL%0,           Linkang%Xu%NULL%0,           Roger S.%McIntyre%NULL%1,           Faith N.%Choo%NULL%1,           Bach%Tran%NULL%1,           Roger%Ho%NULL%1,           Vijay K.%Sharma%NULL%0,           Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,           Ariella%Grossman-Giron%NULL%1,           Yuval%Bloch%NULL%1,           Yael%Mayer%NULL%1,           Noga%Shiffman%NULL%1,           Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,           Philip J.%Corr%NULL%2,           Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,           Li-Gang%Zhang%NULL%1,           Lei-Lei%Wang%NULL%1,           Zhao-Chang%Guo%NULL%1,           Jing-Qi%Wang%NULL%1,           Jin-Cheng%Chen%NULL%1,           Mei%Liu%NULL%1,           Xi%Chen%NULL%1,           Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,           Baoren%Tu%NULL%0,           Jing%Ma%NULL%0,           Limin%Chen%NULL%0,           Lei%Fu%NULL%0,           Yongfang%Jiang%NULL%0,           Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,     Maria%Dosil-Santamaria%xref no email%1,     Maitane%Picaza-Gorrochategui%xref no email%1,     Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,           Xiaoming%Huang%NULL%1,           Shuai%Zhang%NULL%1,           Jinrong%Yang%NULL%1,           Lin%Yang%NULL%0,           Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,           Zhenxin%Liao%NULL%0,           Haojie%Huang%NULL%0,           Boyue%Jiang%NULL%0,           Xueyan%Zhang%NULL%0,           Yingwen%Wang%NULL%0,           Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,           Simeng%Ma%NULL%0,           Min%Chen%NULL%0,           Jun%Yang%NULL%0,           Ying%Wang%NULL%0,           Ruiting%Li%NULL%0,           Lihua%Yao%NULL%0,           Hanping%Bai%NULL%0,           Zhongxiang%Cai%NULL%0,           Bing%Xiang Yang%NULL%0,           Shaohua%Hu%NULL%0,           Kerang%Zhang%NULL%0,           Gaohua%Wang%NULL%0,           Ci%Ma%NULL%0,           Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,           Ziwei%Fang%NULL%0,           Guoqiang%Hou%NULL%0,           Mei%Han%NULL%0,           Xinrong%Xu%NULL%0,           Jiaxin%Dong%NULL%0,           Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,           Simeng%Ma%NULL%0,           Ying%Wang%NULL%0,           Zhongxiang%Cai%NULL%0,           Jianbo%Hu%NULL%0,           Ning%Wei%NULL%0,           Jiang%Wu%NULL%0,           Hui%Du%NULL%0,           Tingting%Chen%NULL%0,           Ruiting%Li%NULL%0,           Huawei%Tan%NULL%0,           Lijun%Kang%NULL%0,           Lihua%Yao%NULL%0,           Manli%Huang%NULL%0,           Huafen%Wang%NULL%0,           Gaohua%Wang%NULL%0,           Zhongchun%Liu%NULL%0,           Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,           Lan%Deng%NULL%0,           Lan%Deng%NULL%0,           Liyan%Zhang%NULL%0,           Qiuyan%Lang%NULL%0,           Chunyan%Liao%NULL%0,           Nannan%Wang%NULL%0,           Mingqin%Qin%2026142822@qq.com%0,           Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,           Yilin%Wang%NULL%1,           Jia%Xue%NULL%1,           Nan%Zhao%NULL%1,           Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,           Yun-zhi%Yang%NULL%1,           Xiao-Ming%Zhang%NULL%1,           Xinying%Xu%NULL%2,           Xinying%Xu%NULL%0,           Qing-Li%Dou%NULL%1,           Wen-Wu%Zhang%NULL%1,           Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,           Yan%Zhang%NULL%0,           Desheng%Kong%NULL%0,           Shiyue%Li%NULL%0,           Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,     Sunfang%Jiang%xref no email%1,     Hua%Yang%xref no email%1,     Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,           Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,           Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,           Elena%Del Fante%edelfante@hotmail.it%1,           Rosanna%De Pace%Rosannadepace@libero.it%1,           Antonino%Urso%antonino.urso@tin.it%1,           Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,            Berta%Ausín%NULL%1,            Miguel Ángel%Castellanos%NULL%1,            Jesús%Saiz%NULL%1,            Aída%López-Gómez%NULL%1,            Carolina%Ugidos%NULL%1,            Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,            Riyu%Pan%NULL%0,            Riyu%Pan%NULL%0,            Xiaoyang%Wan%NULL%0,            Yilin%Tan%NULL%0,            Linkang%Xu%NULL%0,            Cyrus S.%Ho%NULL%0,            Roger C.%Ho%NULL%0,            Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,            Qian%Xia%NULL%1,            Zhenzhen%Xiong%NULL%1,            Zhixiong%Li%NULL%1,            Weiyi%Xiang%NULL%1,            Yiwen%Yuan%NULL%1,            Yaya%Liu%NULL%1,            Zhe%Li%NULL%1,            Kenji%Hashimoto%NULL%0,            Kenji%Hashimoto%NULL%0,            Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,      Yu%Di%xref no email%0,      Junjie%Ye%xref no email%0,      Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,            Jun%Wang%NULL%1,            Chenggang%Luo%NULL%1,            Sheng%Hu%NULL%1,            Xi%Lin%NULL%1,            Aimee E.%Anderson%NULL%1,            Eduardo%Bruera%NULL%1,            Xiaoxin%Yang%NULL%1,            Shaozhong%Wei%NULL%1,            Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,            Zheng Feei%Ma%NULL%0,            Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,            Riyu%Pan%NULL%0,            Xiaoyang%Wan%NULL%0,            Yilin%Tan%NULL%0,            Linkang%Xu%NULL%0,            Roger S.%McIntyre%NULL%1,            Faith N.%Choo%NULL%1,            Bach%Tran%NULL%1,            Roger%Ho%NULL%1,            Vijay K.%Sharma%NULL%0,            Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,            Ariella%Grossman-Giron%NULL%1,            Yuval%Bloch%NULL%1,            Yael%Mayer%NULL%1,            Noga%Shiffman%NULL%1,            Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,            Philip J.%Corr%NULL%2,            Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,            Li-Gang%Zhang%NULL%1,            Lei-Lei%Wang%NULL%1,            Zhao-Chang%Guo%NULL%1,            Jing-Qi%Wang%NULL%1,            Jin-Cheng%Chen%NULL%1,            Mei%Liu%NULL%1,            Xi%Chen%NULL%1,            Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,            Baoren%Tu%NULL%0,            Jing%Ma%NULL%0,            Limin%Chen%NULL%0,            Lei%Fu%NULL%0,            Yongfang%Jiang%NULL%0,            Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,      Maria%Dosil-Santamaria%xref no email%1,      Maitane%Picaza-Gorrochategui%xref no email%1,      Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,            Xiaoming%Huang%NULL%1,            Shuai%Zhang%NULL%1,            Jinrong%Yang%NULL%1,            Lin%Yang%NULL%0,            Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,            Zhenxin%Liao%NULL%0,            Haojie%Huang%NULL%0,            Boyue%Jiang%NULL%0,            Xueyan%Zhang%NULL%0,            Yingwen%Wang%NULL%0,            Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,            Simeng%Ma%NULL%0,            Min%Chen%NULL%0,            Jun%Yang%NULL%0,            Ying%Wang%NULL%0,            Ruiting%Li%NULL%0,            Lihua%Yao%NULL%0,            Hanping%Bai%NULL%0,            Zhongxiang%Cai%NULL%0,            Bing%Xiang Yang%NULL%0,            Shaohua%Hu%NULL%0,            Kerang%Zhang%NULL%0,            Gaohua%Wang%NULL%0,            Ci%Ma%NULL%0,            Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,            Ziwei%Fang%NULL%0,            Guoqiang%Hou%NULL%0,            Mei%Han%NULL%0,            Xinrong%Xu%NULL%0,            Jiaxin%Dong%NULL%0,            Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,            Simeng%Ma%NULL%0,            Ying%Wang%NULL%0,            Zhongxiang%Cai%NULL%0,            Jianbo%Hu%NULL%0,            Ning%Wei%NULL%0,            Jiang%Wu%NULL%0,            Hui%Du%NULL%0,            Tingting%Chen%NULL%0,            Ruiting%Li%NULL%0,            Huawei%Tan%NULL%0,            Lijun%Kang%NULL%0,            Lihua%Yao%NULL%0,            Manli%Huang%NULL%0,            Huafen%Wang%NULL%0,            Gaohua%Wang%NULL%0,            Zhongchun%Liu%NULL%0,            Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,            Lan%Deng%NULL%0,            Lan%Deng%NULL%0,            Liyan%Zhang%NULL%0,            Qiuyan%Lang%NULL%0,            Chunyan%Liao%NULL%0,            Nannan%Wang%NULL%0,            Mingqin%Qin%2026142822@qq.com%0,            Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,            Yilin%Wang%NULL%1,            Jia%Xue%NULL%1,            Nan%Zhao%NULL%1,            Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,            Yun-zhi%Yang%NULL%1,            Xiao-Ming%Zhang%NULL%1,            Xinying%Xu%NULL%2,            Xinying%Xu%NULL%0,            Qing-Li%Dou%NULL%1,            Wen-Wu%Zhang%NULL%1,            Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,            Yan%Zhang%NULL%0,            Desheng%Kong%NULL%0,            Shiyue%Li%NULL%0,            Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,      Sunfang%Jiang%xref no email%1,      Hua%Yang%xref no email%1,      Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,            Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,            Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,            Elena%Del Fante%edelfante@hotmail.it%1,            Rosanna%De Pace%Rosannadepace@libero.it%1,            Antonino%Urso%antonino.urso@tin.it%1,            Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -1634,7 +1772,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>320</v>
+        <v>366</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1663,7 +1801,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>321</v>
+        <v>367</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1692,7 +1830,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>322</v>
+        <v>368</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -1721,7 +1859,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>323</v>
+        <v>369</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1750,7 +1888,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>324</v>
+        <v>370</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1779,7 +1917,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>325</v>
+        <v>371</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1837,7 +1975,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>326</v>
+        <v>372</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -1866,7 +2004,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>373</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -1924,7 +2062,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>328</v>
+        <v>374</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -1953,7 +2091,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>329</v>
+        <v>375</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -1982,7 +2120,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>330</v>
+        <v>376</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -2011,7 +2149,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>331</v>
+        <v>377</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2040,7 +2178,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>332</v>
+        <v>378</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -2069,7 +2207,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>333</v>
+        <v>379</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2098,7 +2236,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>334</v>
+        <v>380</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2127,7 +2265,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>335</v>
+        <v>381</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -2156,7 +2294,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>336</v>
+        <v>382</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -2185,7 +2323,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>337</v>
+        <v>383</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2214,7 +2352,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>338</v>
+        <v>384</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2243,7 +2381,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>339</v>
+        <v>385</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2272,7 +2410,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>340</v>
+        <v>386</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2301,7 +2439,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2330,7 +2468,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="412">
   <si>
     <t>Doi</t>
   </si>
@@ -1425,6 +1425,75 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,            Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,            Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,            Elena%Del Fante%edelfante@hotmail.it%1,            Rosanna%De Pace%Rosannadepace@libero.it%1,            Antonino%Urso%antonino.urso@tin.it%1,            Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,             Berta%Ausín%NULL%1,             Miguel Ángel%Castellanos%NULL%1,             Jesús%Saiz%NULL%1,             Aída%López-Gómez%NULL%1,             Carolina%Ugidos%NULL%1,             Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,             Riyu%Pan%NULL%0,             Riyu%Pan%NULL%0,             Xiaoyang%Wan%NULL%0,             Yilin%Tan%NULL%0,             Linkang%Xu%NULL%0,             Cyrus S.%Ho%NULL%0,             Roger C.%Ho%NULL%0,             Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,             Qian%Xia%NULL%1,             Zhenzhen%Xiong%NULL%1,             Zhixiong%Li%NULL%1,             Weiyi%Xiang%NULL%1,             Yiwen%Yuan%NULL%1,             Yaya%Liu%NULL%1,             Zhe%Li%NULL%1,             Kenji%Hashimoto%NULL%0,             Kenji%Hashimoto%NULL%0,             Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,       Yu%Di%xref no email%0,       Junjie%Ye%xref no email%0,       Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,             Jun%Wang%NULL%1,             Chenggang%Luo%NULL%1,             Sheng%Hu%NULL%1,             Xi%Lin%NULL%1,             Aimee E.%Anderson%NULL%1,             Eduardo%Bruera%NULL%1,             Xiaoxin%Yang%NULL%1,             Shaozhong%Wei%NULL%1,             Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,             Zheng Feei%Ma%NULL%0,             Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,             Riyu%Pan%NULL%0,             Xiaoyang%Wan%NULL%0,             Yilin%Tan%NULL%0,             Linkang%Xu%NULL%0,             Roger S.%McIntyre%NULL%1,             Faith N.%Choo%NULL%1,             Bach%Tran%NULL%1,             Roger%Ho%NULL%1,             Vijay K.%Sharma%NULL%0,             Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,             Ariella%Grossman-Giron%NULL%1,             Yuval%Bloch%NULL%1,             Yael%Mayer%NULL%1,             Noga%Shiffman%NULL%1,             Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,             Philip J.%Corr%NULL%2,             Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,             Li-Gang%Zhang%NULL%1,             Lei-Lei%Wang%NULL%1,             Zhao-Chang%Guo%NULL%1,             Jing-Qi%Wang%NULL%1,             Jin-Cheng%Chen%NULL%1,             Mei%Liu%NULL%1,             Xi%Chen%NULL%1,             Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,             Baoren%Tu%NULL%0,             Jing%Ma%NULL%0,             Limin%Chen%NULL%0,             Lei%Fu%NULL%0,             Yongfang%Jiang%NULL%0,             Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,       Maria%Dosil-Santamaria%xref no email%1,       Maitane%Picaza-Gorrochategui%xref no email%1,       Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,             Xiaoming%Huang%NULL%1,             Shuai%Zhang%NULL%1,             Jinrong%Yang%NULL%1,             Lin%Yang%NULL%0,             Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,             Zhenxin%Liao%NULL%0,             Haojie%Huang%NULL%0,             Boyue%Jiang%NULL%0,             Xueyan%Zhang%NULL%0,             Yingwen%Wang%NULL%0,             Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,             Simeng%Ma%NULL%0,             Min%Chen%NULL%0,             Jun%Yang%NULL%0,             Ying%Wang%NULL%0,             Ruiting%Li%NULL%0,             Lihua%Yao%NULL%0,             Hanping%Bai%NULL%0,             Zhongxiang%Cai%NULL%0,             Bing%Xiang Yang%NULL%0,             Shaohua%Hu%NULL%0,             Kerang%Zhang%NULL%0,             Gaohua%Wang%NULL%0,             Ci%Ma%NULL%0,             Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,             Ziwei%Fang%NULL%0,             Guoqiang%Hou%NULL%0,             Mei%Han%NULL%0,             Xinrong%Xu%NULL%0,             Jiaxin%Dong%NULL%0,             Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,             Simeng%Ma%NULL%0,             Ying%Wang%NULL%0,             Zhongxiang%Cai%NULL%0,             Jianbo%Hu%NULL%0,             Ning%Wei%NULL%0,             Jiang%Wu%NULL%0,             Hui%Du%NULL%0,             Tingting%Chen%NULL%0,             Ruiting%Li%NULL%0,             Huawei%Tan%NULL%0,             Lijun%Kang%NULL%0,             Lihua%Yao%NULL%0,             Manli%Huang%NULL%0,             Huafen%Wang%NULL%0,             Gaohua%Wang%NULL%0,             Zhongchun%Liu%NULL%0,             Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,             Lan%Deng%NULL%0,             Lan%Deng%NULL%0,             Liyan%Zhang%NULL%0,             Qiuyan%Lang%NULL%0,             Chunyan%Liao%NULL%0,             Nannan%Wang%NULL%0,             Mingqin%Qin%2026142822@qq.com%0,             Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,             Yilin%Wang%NULL%1,             Jia%Xue%NULL%1,             Nan%Zhao%NULL%1,             Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,             Yun-zhi%Yang%NULL%1,             Xiao-Ming%Zhang%NULL%1,             Xinying%Xu%NULL%2,             Xinying%Xu%NULL%0,             Qing-Li%Dou%NULL%1,             Wen-Wu%Zhang%NULL%1,             Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,             Yan%Zhang%NULL%0,             Desheng%Kong%NULL%0,             Shiyue%Li%NULL%0,             Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,       Sunfang%Jiang%xref no email%1,       Hua%Yang%xref no email%1,       Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,             Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,             Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,             Elena%Del Fante%edelfante@hotmail.it%1,             Rosanna%De Pace%Rosannadepace@libero.it%1,             Antonino%Urso%antonino.urso@tin.it%1,             Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -1772,7 +1841,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>366</v>
+        <v>389</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1801,7 +1870,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>367</v>
+        <v>390</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1830,7 +1899,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>368</v>
+        <v>391</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -1859,7 +1928,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>369</v>
+        <v>392</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1888,7 +1957,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>370</v>
+        <v>393</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1917,7 +1986,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>371</v>
+        <v>394</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -1975,7 +2044,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>372</v>
+        <v>395</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2004,7 +2073,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>373</v>
+        <v>396</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2062,7 +2131,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>374</v>
+        <v>397</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -2091,7 +2160,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>375</v>
+        <v>398</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2120,7 +2189,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>376</v>
+        <v>399</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -2149,7 +2218,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2178,7 +2247,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>378</v>
+        <v>401</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -2207,7 +2276,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>379</v>
+        <v>402</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2236,7 +2305,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>380</v>
+        <v>403</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2265,7 +2334,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>381</v>
+        <v>404</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -2294,7 +2363,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>382</v>
+        <v>405</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -2323,7 +2392,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>383</v>
+        <v>406</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2352,7 +2421,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>384</v>
+        <v>407</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2381,7 +2450,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>385</v>
+        <v>408</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2410,7 +2479,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>386</v>
+        <v>409</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2439,7 +2508,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>387</v>
+        <v>410</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2468,7 +2537,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>388</v>
+        <v>411</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2552" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="435">
   <si>
     <t>Doi</t>
   </si>
@@ -1494,6 +1494,75 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,             Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,             Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,             Elena%Del Fante%edelfante@hotmail.it%1,             Rosanna%De Pace%Rosannadepace@libero.it%1,             Antonino%Urso%antonino.urso@tin.it%1,             Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,              Berta%Ausín%NULL%1,              Miguel Ángel%Castellanos%NULL%1,              Jesús%Saiz%NULL%1,              Aída%López-Gómez%NULL%1,              Carolina%Ugidos%NULL%1,              Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,              Riyu%Pan%NULL%0,              Riyu%Pan%NULL%0,              Xiaoyang%Wan%NULL%0,              Yilin%Tan%NULL%0,              Linkang%Xu%NULL%0,              Cyrus S.%Ho%NULL%0,              Roger C.%Ho%NULL%0,              Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,              Qian%Xia%NULL%1,              Zhenzhen%Xiong%NULL%1,              Zhixiong%Li%NULL%1,              Weiyi%Xiang%NULL%1,              Yiwen%Yuan%NULL%1,              Yaya%Liu%NULL%1,              Zhe%Li%NULL%1,              Kenji%Hashimoto%NULL%0,              Kenji%Hashimoto%NULL%0,              Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,        Yu%Di%xref no email%0,        Junjie%Ye%xref no email%0,        Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,              Jun%Wang%NULL%1,              Chenggang%Luo%NULL%1,              Sheng%Hu%NULL%1,              Xi%Lin%NULL%1,              Aimee E.%Anderson%NULL%1,              Eduardo%Bruera%NULL%1,              Xiaoxin%Yang%NULL%1,              Shaozhong%Wei%NULL%1,              Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,              Zheng Feei%Ma%NULL%0,              Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,              Riyu%Pan%NULL%0,              Xiaoyang%Wan%NULL%0,              Yilin%Tan%NULL%0,              Linkang%Xu%NULL%0,              Roger S.%McIntyre%NULL%1,              Faith N.%Choo%NULL%1,              Bach%Tran%NULL%1,              Roger%Ho%NULL%1,              Vijay K.%Sharma%NULL%0,              Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,              Ariella%Grossman-Giron%NULL%1,              Yuval%Bloch%NULL%1,              Yael%Mayer%NULL%1,              Noga%Shiffman%NULL%1,              Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,              Philip J.%Corr%NULL%2,              Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,              Li-Gang%Zhang%NULL%1,              Lei-Lei%Wang%NULL%1,              Zhao-Chang%Guo%NULL%1,              Jing-Qi%Wang%NULL%1,              Jin-Cheng%Chen%NULL%1,              Mei%Liu%NULL%1,              Xi%Chen%NULL%1,              Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,              Baoren%Tu%NULL%0,              Jing%Ma%NULL%0,              Limin%Chen%NULL%0,              Lei%Fu%NULL%0,              Yongfang%Jiang%NULL%0,              Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,        Maria%Dosil-Santamaria%xref no email%1,        Maitane%Picaza-Gorrochategui%xref no email%1,        Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,              Xiaoming%Huang%NULL%1,              Shuai%Zhang%NULL%1,              Jinrong%Yang%NULL%1,              Lin%Yang%NULL%0,              Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,              Zhenxin%Liao%NULL%0,              Haojie%Huang%NULL%0,              Boyue%Jiang%NULL%0,              Xueyan%Zhang%NULL%0,              Yingwen%Wang%NULL%0,              Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,              Simeng%Ma%NULL%0,              Min%Chen%NULL%0,              Jun%Yang%NULL%0,              Ying%Wang%NULL%0,              Ruiting%Li%NULL%0,              Lihua%Yao%NULL%0,              Hanping%Bai%NULL%0,              Zhongxiang%Cai%NULL%0,              Bing%Xiang Yang%NULL%0,              Shaohua%Hu%NULL%0,              Kerang%Zhang%NULL%0,              Gaohua%Wang%NULL%0,              Ci%Ma%NULL%0,              Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,              Ziwei%Fang%NULL%0,              Guoqiang%Hou%NULL%0,              Mei%Han%NULL%0,              Xinrong%Xu%NULL%0,              Jiaxin%Dong%NULL%0,              Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,              Simeng%Ma%NULL%0,              Ying%Wang%NULL%0,              Zhongxiang%Cai%NULL%0,              Jianbo%Hu%NULL%0,              Ning%Wei%NULL%0,              Jiang%Wu%NULL%0,              Hui%Du%NULL%0,              Tingting%Chen%NULL%0,              Ruiting%Li%NULL%0,              Huawei%Tan%NULL%0,              Lijun%Kang%NULL%0,              Lihua%Yao%NULL%0,              Manli%Huang%NULL%0,              Huafen%Wang%NULL%0,              Gaohua%Wang%NULL%0,              Zhongchun%Liu%NULL%0,              Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,              Lan%Deng%NULL%0,              Lan%Deng%NULL%0,              Liyan%Zhang%NULL%0,              Qiuyan%Lang%NULL%0,              Chunyan%Liao%NULL%0,              Nannan%Wang%NULL%0,              Mingqin%Qin%2026142822@qq.com%0,              Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,              Yilin%Wang%NULL%1,              Jia%Xue%NULL%1,              Nan%Zhao%NULL%1,              Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,              Yun-zhi%Yang%NULL%1,              Xiao-Ming%Zhang%NULL%1,              Xinying%Xu%NULL%2,              Xinying%Xu%NULL%0,              Qing-Li%Dou%NULL%1,              Wen-Wu%Zhang%NULL%1,              Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,              Yan%Zhang%NULL%0,              Desheng%Kong%NULL%0,              Shiyue%Li%NULL%0,              Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,        Sunfang%Jiang%xref no email%1,        Hua%Yang%xref no email%1,        Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,              Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,              Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,              Elena%Del Fante%edelfante@hotmail.it%1,              Rosanna%De Pace%Rosannadepace@libero.it%1,              Antonino%Urso%antonino.urso@tin.it%1,              Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -1841,7 +1910,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>389</v>
+        <v>412</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1870,7 +1939,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>390</v>
+        <v>413</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1899,7 +1968,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>391</v>
+        <v>414</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -1928,7 +1997,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>392</v>
+        <v>415</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -1957,7 +2026,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>393</v>
+        <v>416</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -1986,7 +2055,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2044,7 +2113,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>395</v>
+        <v>418</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2073,7 +2142,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>396</v>
+        <v>419</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2131,7 +2200,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>397</v>
+        <v>420</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -2160,7 +2229,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>398</v>
+        <v>421</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2189,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>399</v>
+        <v>422</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -2218,7 +2287,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>400</v>
+        <v>423</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2247,7 +2316,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>401</v>
+        <v>424</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -2276,7 +2345,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>402</v>
+        <v>425</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2305,7 +2374,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>403</v>
+        <v>426</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2334,7 +2403,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>404</v>
+        <v>427</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -2363,7 +2432,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>405</v>
+        <v>428</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -2392,7 +2461,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>406</v>
+        <v>429</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2421,7 +2490,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>407</v>
+        <v>430</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2450,7 +2519,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>408</v>
+        <v>431</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2479,7 +2548,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>409</v>
+        <v>432</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2508,7 +2577,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2537,7 +2606,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>411</v>
+        <v>434</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2734" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="481">
   <si>
     <t>Doi</t>
   </si>
@@ -1563,6 +1563,144 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,              Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,              Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,              Elena%Del Fante%edelfante@hotmail.it%1,              Rosanna%De Pace%Rosannadepace@libero.it%1,              Antonino%Urso%antonino.urso@tin.it%1,              Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,               Berta%Ausín%NULL%1,               Miguel Ángel%Castellanos%NULL%1,               Jesús%Saiz%NULL%1,               Aída%López-Gómez%NULL%1,               Carolina%Ugidos%NULL%1,               Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,               Riyu%Pan%NULL%0,               Riyu%Pan%NULL%0,               Xiaoyang%Wan%NULL%0,               Yilin%Tan%NULL%0,               Linkang%Xu%NULL%0,               Cyrus S.%Ho%NULL%0,               Roger C.%Ho%NULL%0,               Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,               Qian%Xia%NULL%1,               Zhenzhen%Xiong%NULL%1,               Zhixiong%Li%NULL%1,               Weiyi%Xiang%NULL%1,               Yiwen%Yuan%NULL%1,               Yaya%Liu%NULL%1,               Zhe%Li%NULL%1,               Kenji%Hashimoto%NULL%0,               Kenji%Hashimoto%NULL%0,               Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,         Yu%Di%xref no email%0,         Junjie%Ye%xref no email%0,         Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,               Jun%Wang%NULL%1,               Chenggang%Luo%NULL%1,               Sheng%Hu%NULL%1,               Xi%Lin%NULL%1,               Aimee E.%Anderson%NULL%1,               Eduardo%Bruera%NULL%1,               Xiaoxin%Yang%NULL%1,               Shaozhong%Wei%NULL%1,               Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,               Zheng Feei%Ma%NULL%0,               Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,               Riyu%Pan%NULL%0,               Xiaoyang%Wan%NULL%0,               Yilin%Tan%NULL%0,               Linkang%Xu%NULL%0,               Roger S.%McIntyre%NULL%1,               Faith N.%Choo%NULL%1,               Bach%Tran%NULL%1,               Roger%Ho%NULL%1,               Vijay K.%Sharma%NULL%0,               Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,               Ariella%Grossman-Giron%NULL%1,               Yuval%Bloch%NULL%1,               Yael%Mayer%NULL%1,               Noga%Shiffman%NULL%1,               Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,               Philip J.%Corr%NULL%2,               Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,               Li-Gang%Zhang%NULL%1,               Lei-Lei%Wang%NULL%1,               Zhao-Chang%Guo%NULL%1,               Jing-Qi%Wang%NULL%1,               Jin-Cheng%Chen%NULL%1,               Mei%Liu%NULL%1,               Xi%Chen%NULL%1,               Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,               Baoren%Tu%NULL%0,               Jing%Ma%NULL%0,               Limin%Chen%NULL%0,               Lei%Fu%NULL%0,               Yongfang%Jiang%NULL%0,               Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,         Maria%Dosil-Santamaria%xref no email%1,         Maitane%Picaza-Gorrochategui%xref no email%1,         Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,               Xiaoming%Huang%NULL%1,               Shuai%Zhang%NULL%1,               Jinrong%Yang%NULL%1,               Lin%Yang%NULL%0,               Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,               Zhenxin%Liao%NULL%0,               Haojie%Huang%NULL%0,               Boyue%Jiang%NULL%0,               Xueyan%Zhang%NULL%0,               Yingwen%Wang%NULL%0,               Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,               Simeng%Ma%NULL%0,               Min%Chen%NULL%0,               Jun%Yang%NULL%0,               Ying%Wang%NULL%0,               Ruiting%Li%NULL%0,               Lihua%Yao%NULL%0,               Hanping%Bai%NULL%0,               Zhongxiang%Cai%NULL%0,               Bing%Xiang Yang%NULL%0,               Shaohua%Hu%NULL%0,               Kerang%Zhang%NULL%0,               Gaohua%Wang%NULL%0,               Ci%Ma%NULL%0,               Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,               Ziwei%Fang%NULL%0,               Guoqiang%Hou%NULL%0,               Mei%Han%NULL%0,               Xinrong%Xu%NULL%0,               Jiaxin%Dong%NULL%0,               Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,               Simeng%Ma%NULL%0,               Ying%Wang%NULL%0,               Zhongxiang%Cai%NULL%0,               Jianbo%Hu%NULL%0,               Ning%Wei%NULL%0,               Jiang%Wu%NULL%0,               Hui%Du%NULL%0,               Tingting%Chen%NULL%0,               Ruiting%Li%NULL%0,               Huawei%Tan%NULL%0,               Lijun%Kang%NULL%0,               Lihua%Yao%NULL%0,               Manli%Huang%NULL%0,               Huafen%Wang%NULL%0,               Gaohua%Wang%NULL%0,               Zhongchun%Liu%NULL%0,               Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,               Lan%Deng%NULL%0,               Lan%Deng%NULL%0,               Liyan%Zhang%NULL%0,               Qiuyan%Lang%NULL%0,               Chunyan%Liao%NULL%0,               Nannan%Wang%NULL%0,               Mingqin%Qin%2026142822@qq.com%0,               Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,               Yilin%Wang%NULL%1,               Jia%Xue%NULL%1,               Nan%Zhao%NULL%1,               Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,               Yun-zhi%Yang%NULL%1,               Xiao-Ming%Zhang%NULL%1,               Xinying%Xu%NULL%2,               Xinying%Xu%NULL%0,               Qing-Li%Dou%NULL%1,               Wen-Wu%Zhang%NULL%1,               Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,               Yan%Zhang%NULL%0,               Desheng%Kong%NULL%0,               Shiyue%Li%NULL%0,               Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,         Sunfang%Jiang%xref no email%1,         Hua%Yang%xref no email%1,         Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,               Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,               Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,               Elena%Del Fante%edelfante@hotmail.it%1,               Rosanna%De Pace%Rosannadepace@libero.it%1,               Antonino%Urso%antonino.urso@tin.it%1,               Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                Berta%Ausín%NULL%1,                Miguel Ángel%Castellanos%NULL%1,                Jesús%Saiz%NULL%1,                Aída%López-Gómez%NULL%1,                Carolina%Ugidos%NULL%1,                Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                Riyu%Pan%NULL%0,                Riyu%Pan%NULL%0,                Xiaoyang%Wan%NULL%0,                Yilin%Tan%NULL%0,                Linkang%Xu%NULL%0,                Cyrus S.%Ho%NULL%0,                Roger C.%Ho%NULL%0,                Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                Qian%Xia%NULL%1,                Zhenzhen%Xiong%NULL%1,                Zhixiong%Li%NULL%1,                Weiyi%Xiang%NULL%1,                Yiwen%Yuan%NULL%1,                Yaya%Liu%NULL%1,                Zhe%Li%NULL%1,                Kenji%Hashimoto%NULL%0,                Kenji%Hashimoto%NULL%0,                Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,          Yu%Di%xref no email%0,          Junjie%Ye%xref no email%0,          Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                Jun%Wang%NULL%1,                Chenggang%Luo%NULL%1,                Sheng%Hu%NULL%1,                Xi%Lin%NULL%1,                Aimee E.%Anderson%NULL%1,                Eduardo%Bruera%NULL%1,                Xiaoxin%Yang%NULL%1,                Shaozhong%Wei%NULL%1,                Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                Zheng Feei%Ma%NULL%0,                Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                Riyu%Pan%NULL%0,                Xiaoyang%Wan%NULL%0,                Yilin%Tan%NULL%0,                Linkang%Xu%NULL%0,                Roger S.%McIntyre%NULL%1,                Faith N.%Choo%NULL%1,                Bach%Tran%NULL%1,                Roger%Ho%NULL%1,                Vijay K.%Sharma%NULL%0,                Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                Ariella%Grossman-Giron%NULL%1,                Yuval%Bloch%NULL%1,                Yael%Mayer%NULL%1,                Noga%Shiffman%NULL%1,                Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                Philip J.%Corr%NULL%2,                Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                Li-Gang%Zhang%NULL%1,                Lei-Lei%Wang%NULL%1,                Zhao-Chang%Guo%NULL%1,                Jing-Qi%Wang%NULL%1,                Jin-Cheng%Chen%NULL%1,                Mei%Liu%NULL%1,                Xi%Chen%NULL%1,                Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                Baoren%Tu%NULL%0,                Jing%Ma%NULL%0,                Limin%Chen%NULL%0,                Lei%Fu%NULL%0,                Yongfang%Jiang%NULL%0,                Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,          Maria%Dosil-Santamaria%xref no email%1,          Maitane%Picaza-Gorrochategui%xref no email%1,          Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                Xiaoming%Huang%NULL%1,                Shuai%Zhang%NULL%1,                Jinrong%Yang%NULL%1,                Lin%Yang%NULL%0,                Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                Zhenxin%Liao%NULL%0,                Haojie%Huang%NULL%0,                Boyue%Jiang%NULL%0,                Xueyan%Zhang%NULL%0,                Yingwen%Wang%NULL%0,                Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                Simeng%Ma%NULL%0,                Min%Chen%NULL%0,                Jun%Yang%NULL%0,                Ying%Wang%NULL%0,                Ruiting%Li%NULL%0,                Lihua%Yao%NULL%0,                Hanping%Bai%NULL%0,                Zhongxiang%Cai%NULL%0,                Bing%Xiang Yang%NULL%0,                Shaohua%Hu%NULL%0,                Kerang%Zhang%NULL%0,                Gaohua%Wang%NULL%0,                Ci%Ma%NULL%0,                Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                Ziwei%Fang%NULL%0,                Guoqiang%Hou%NULL%0,                Mei%Han%NULL%0,                Xinrong%Xu%NULL%0,                Jiaxin%Dong%NULL%0,                Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                Simeng%Ma%NULL%0,                Ying%Wang%NULL%0,                Zhongxiang%Cai%NULL%0,                Jianbo%Hu%NULL%0,                Ning%Wei%NULL%0,                Jiang%Wu%NULL%0,                Hui%Du%NULL%0,                Tingting%Chen%NULL%0,                Ruiting%Li%NULL%0,                Huawei%Tan%NULL%0,                Lijun%Kang%NULL%0,                Lihua%Yao%NULL%0,                Manli%Huang%NULL%0,                Huafen%Wang%NULL%0,                Gaohua%Wang%NULL%0,                Zhongchun%Liu%NULL%0,                Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                Lan%Deng%NULL%0,                Lan%Deng%NULL%0,                Liyan%Zhang%NULL%0,                Qiuyan%Lang%NULL%0,                Chunyan%Liao%NULL%0,                Nannan%Wang%NULL%0,                Mingqin%Qin%2026142822@qq.com%0,                Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                Yilin%Wang%NULL%1,                Jia%Xue%NULL%1,                Nan%Zhao%NULL%1,                Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                Yun-zhi%Yang%NULL%1,                Xiao-Ming%Zhang%NULL%1,                Xinying%Xu%NULL%2,                Xinying%Xu%NULL%0,                Qing-Li%Dou%NULL%1,                Wen-Wu%Zhang%NULL%1,                Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                Yan%Zhang%NULL%0,                Desheng%Kong%NULL%0,                Shiyue%Li%NULL%0,                Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,          Sunfang%Jiang%xref no email%1,          Hua%Yang%xref no email%1,          Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                Elena%Del Fante%edelfante@hotmail.it%1,                Rosanna%De Pace%Rosannadepace@libero.it%1,                Antonino%Urso%antonino.urso@tin.it%1,                Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -1910,7 +2048,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -1939,7 +2077,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -1968,7 +2106,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -1997,7 +2135,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2026,7 +2164,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>416</v>
+        <v>462</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2055,7 +2193,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>417</v>
+        <v>463</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2113,7 +2251,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>418</v>
+        <v>464</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2142,7 +2280,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>419</v>
+        <v>465</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2200,7 +2338,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>420</v>
+        <v>466</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -2229,7 +2367,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>421</v>
+        <v>467</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2258,7 +2396,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>422</v>
+        <v>468</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -2287,7 +2425,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>423</v>
+        <v>469</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2316,7 +2454,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>424</v>
+        <v>470</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -2345,7 +2483,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>425</v>
+        <v>471</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2374,7 +2512,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>426</v>
+        <v>472</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2403,7 +2541,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>427</v>
+        <v>473</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -2432,7 +2570,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>428</v>
+        <v>474</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -2461,7 +2599,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>429</v>
+        <v>475</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2490,7 +2628,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>430</v>
+        <v>476</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2519,7 +2657,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>431</v>
+        <v>477</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2548,7 +2686,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>432</v>
+        <v>478</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2577,7 +2715,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>433</v>
+        <v>479</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2606,7 +2744,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>434</v>
+        <v>480</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3098" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="504">
   <si>
     <t>Doi</t>
   </si>
@@ -1701,6 +1701,75 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                Elena%Del Fante%edelfante@hotmail.it%1,                Rosanna%De Pace%Rosannadepace@libero.it%1,                Antonino%Urso%antonino.urso@tin.it%1,                Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                 Berta%Ausín%NULL%1,                 Miguel Ángel%Castellanos%NULL%1,                 Jesús%Saiz%NULL%1,                 Aída%López-Gómez%NULL%1,                 Carolina%Ugidos%NULL%1,                 Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                 Riyu%Pan%NULL%0,                 Riyu%Pan%NULL%0,                 Xiaoyang%Wan%NULL%0,                 Yilin%Tan%NULL%0,                 Linkang%Xu%NULL%0,                 Cyrus S.%Ho%NULL%0,                 Roger C.%Ho%NULL%0,                 Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                 Qian%Xia%NULL%1,                 Zhenzhen%Xiong%NULL%1,                 Zhixiong%Li%NULL%1,                 Weiyi%Xiang%NULL%1,                 Yiwen%Yuan%NULL%1,                 Yaya%Liu%NULL%1,                 Zhe%Li%NULL%1,                 Kenji%Hashimoto%NULL%0,                 Kenji%Hashimoto%NULL%0,                 Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,           Yu%Di%xref no email%0,           Junjie%Ye%xref no email%0,           Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                 Jun%Wang%NULL%1,                 Chenggang%Luo%NULL%1,                 Sheng%Hu%NULL%1,                 Xi%Lin%NULL%1,                 Aimee E.%Anderson%NULL%1,                 Eduardo%Bruera%NULL%1,                 Xiaoxin%Yang%NULL%1,                 Shaozhong%Wei%NULL%1,                 Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                 Zheng Feei%Ma%NULL%0,                 Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                 Riyu%Pan%NULL%0,                 Xiaoyang%Wan%NULL%0,                 Yilin%Tan%NULL%0,                 Linkang%Xu%NULL%0,                 Roger S.%McIntyre%NULL%1,                 Faith N.%Choo%NULL%1,                 Bach%Tran%NULL%1,                 Roger%Ho%NULL%1,                 Vijay K.%Sharma%NULL%0,                 Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                 Ariella%Grossman-Giron%NULL%1,                 Yuval%Bloch%NULL%1,                 Yael%Mayer%NULL%1,                 Noga%Shiffman%NULL%1,                 Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                 Philip J.%Corr%NULL%2,                 Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                 Li-Gang%Zhang%NULL%1,                 Lei-Lei%Wang%NULL%1,                 Zhao-Chang%Guo%NULL%1,                 Jing-Qi%Wang%NULL%1,                 Jin-Cheng%Chen%NULL%1,                 Mei%Liu%NULL%1,                 Xi%Chen%NULL%1,                 Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                 Baoren%Tu%NULL%0,                 Jing%Ma%NULL%0,                 Limin%Chen%NULL%0,                 Lei%Fu%NULL%0,                 Yongfang%Jiang%NULL%0,                 Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,           Maria%Dosil-Santamaria%xref no email%1,           Maitane%Picaza-Gorrochategui%xref no email%1,           Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                 Xiaoming%Huang%NULL%1,                 Shuai%Zhang%NULL%1,                 Jinrong%Yang%NULL%1,                 Lin%Yang%NULL%0,                 Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                 Zhenxin%Liao%NULL%0,                 Haojie%Huang%NULL%0,                 Boyue%Jiang%NULL%0,                 Xueyan%Zhang%NULL%0,                 Yingwen%Wang%NULL%0,                 Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                 Simeng%Ma%NULL%0,                 Min%Chen%NULL%0,                 Jun%Yang%NULL%0,                 Ying%Wang%NULL%0,                 Ruiting%Li%NULL%0,                 Lihua%Yao%NULL%0,                 Hanping%Bai%NULL%0,                 Zhongxiang%Cai%NULL%0,                 Bing%Xiang Yang%NULL%0,                 Shaohua%Hu%NULL%0,                 Kerang%Zhang%NULL%0,                 Gaohua%Wang%NULL%0,                 Ci%Ma%NULL%0,                 Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                 Ziwei%Fang%NULL%0,                 Guoqiang%Hou%NULL%0,                 Mei%Han%NULL%0,                 Xinrong%Xu%NULL%0,                 Jiaxin%Dong%NULL%0,                 Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                 Simeng%Ma%NULL%0,                 Ying%Wang%NULL%0,                 Zhongxiang%Cai%NULL%0,                 Jianbo%Hu%NULL%0,                 Ning%Wei%NULL%0,                 Jiang%Wu%NULL%0,                 Hui%Du%NULL%0,                 Tingting%Chen%NULL%0,                 Ruiting%Li%NULL%0,                 Huawei%Tan%NULL%0,                 Lijun%Kang%NULL%0,                 Lihua%Yao%NULL%0,                 Manli%Huang%NULL%0,                 Huafen%Wang%NULL%0,                 Gaohua%Wang%NULL%0,                 Zhongchun%Liu%NULL%0,                 Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                 Lan%Deng%NULL%0,                 Lan%Deng%NULL%0,                 Liyan%Zhang%NULL%0,                 Qiuyan%Lang%NULL%0,                 Chunyan%Liao%NULL%0,                 Nannan%Wang%NULL%0,                 Mingqin%Qin%2026142822@qq.com%0,                 Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                 Yilin%Wang%NULL%1,                 Jia%Xue%NULL%1,                 Nan%Zhao%NULL%1,                 Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                 Yun-zhi%Yang%NULL%1,                 Xiao-Ming%Zhang%NULL%1,                 Xinying%Xu%NULL%2,                 Xinying%Xu%NULL%0,                 Qing-Li%Dou%NULL%1,                 Wen-Wu%Zhang%NULL%1,                 Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                 Yan%Zhang%NULL%0,                 Desheng%Kong%NULL%0,                 Shiyue%Li%NULL%0,                 Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,           Sunfang%Jiang%xref no email%1,           Hua%Yang%xref no email%1,           Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                 Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                 Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                 Elena%Del Fante%edelfante@hotmail.it%1,                 Rosanna%De Pace%Rosannadepace@libero.it%1,                 Antonino%Urso%antonino.urso@tin.it%1,                 Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -2048,7 +2117,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>458</v>
+        <v>481</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2077,7 +2146,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>459</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2106,7 +2175,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>460</v>
+        <v>483</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -2135,7 +2204,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>461</v>
+        <v>484</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2164,7 +2233,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>462</v>
+        <v>485</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2193,7 +2262,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>463</v>
+        <v>486</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2251,7 +2320,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>464</v>
+        <v>487</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2280,7 +2349,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>465</v>
+        <v>488</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2338,7 +2407,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>466</v>
+        <v>489</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -2367,7 +2436,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>467</v>
+        <v>490</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2396,7 +2465,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>468</v>
+        <v>491</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -2425,7 +2494,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>469</v>
+        <v>492</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2454,7 +2523,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>470</v>
+        <v>493</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -2483,7 +2552,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>471</v>
+        <v>494</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2512,7 +2581,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>472</v>
+        <v>495</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2541,7 +2610,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>473</v>
+        <v>496</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -2570,7 +2639,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>474</v>
+        <v>497</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -2599,7 +2668,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>475</v>
+        <v>498</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2628,7 +2697,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>476</v>
+        <v>499</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2657,7 +2726,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>477</v>
+        <v>500</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2686,7 +2755,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>478</v>
+        <v>501</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2715,7 +2784,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>479</v>
+        <v>502</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2744,7 +2813,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>480</v>
+        <v>503</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3280" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="531">
   <si>
     <t>Doi</t>
   </si>
@@ -1770,6 +1770,87 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                 Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                 Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                 Elena%Del Fante%edelfante@hotmail.it%1,                 Rosanna%De Pace%Rosannadepace@libero.it%1,                 Antonino%Urso%antonino.urso@tin.it%1,                 Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                  Berta%Ausín%NULL%1,                  Miguel Ángel%Castellanos%NULL%1,                  Jesús%Saiz%NULL%1,                  Aída%López-Gómez%NULL%1,                  Carolina%Ugidos%NULL%1,                  Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                  Riyu%Pan%NULL%0,                  Riyu%Pan%NULL%0,                  Xiaoyang%Wan%NULL%0,                  Yilin%Tan%NULL%0,                  Linkang%Xu%NULL%0,                  Cyrus S.%Ho%NULL%0,                  Roger C.%Ho%NULL%0,                  Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                  Qian%Xia%NULL%1,                  Zhenzhen%Xiong%NULL%1,                  Zhixiong%Li%NULL%1,                  Weiyi%Xiang%NULL%1,                  Yiwen%Yuan%NULL%1,                  Yaya%Liu%NULL%1,                  Zhe%Li%NULL%1,                  Kenji%Hashimoto%NULL%0,                  Kenji%Hashimoto%NULL%0,                  Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,            Yu%Di%xref no email%0,            Junjie%Ye%xref no email%0,            Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                  Jun%Wang%NULL%1,                  Chenggang%Luo%NULL%1,                  Sheng%Hu%NULL%1,                  Xi%Lin%NULL%1,                  Aimee E.%Anderson%NULL%1,                  Eduardo%Bruera%NULL%1,                  Xiaoxin%Yang%NULL%1,                  Shaozhong%Wei%NULL%1,                  Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                  Zheng Feei%Ma%NULL%0,                  Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                  Riyu%Pan%NULL%0,                  Xiaoyang%Wan%NULL%0,                  Yilin%Tan%NULL%0,                  Linkang%Xu%NULL%0,                  Roger S.%McIntyre%NULL%1,                  Faith N.%Choo%NULL%1,                  Bach%Tran%NULL%1,                  Roger%Ho%NULL%1,                  Vijay K.%Sharma%NULL%0,                  Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                  Ariella%Grossman-Giron%NULL%1,                  Yuval%Bloch%NULL%1,                  Yael%Mayer%NULL%1,                  Noga%Shiffman%NULL%1,                  Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                  Philip J.%Corr%NULL%2,                  Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                  Li-Gang%Zhang%NULL%1,                  Lei-Lei%Wang%NULL%1,                  Zhao-Chang%Guo%NULL%1,                  Jing-Qi%Wang%NULL%1,                  Jin-Cheng%Chen%NULL%1,                  Mei%Liu%NULL%1,                  Xi%Chen%NULL%1,                  Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                  Baoren%Tu%NULL%0,                  Jing%Ma%NULL%0,                  Limin%Chen%NULL%0,                  Lei%Fu%NULL%0,                  Yongfang%Jiang%NULL%0,                  Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,            Maria%Dosil-Santamaria%xref no email%1,            Maitane%Picaza-Gorrochategui%xref no email%1,            Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                  Xiaoming%Huang%NULL%1,                  Shuai%Zhang%NULL%1,                  Jinrong%Yang%NULL%1,                  Lin%Yang%NULL%0,                  Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                  Zhenxin%Liao%NULL%0,                  Haojie%Huang%NULL%0,                  Boyue%Jiang%NULL%0,                  Xueyan%Zhang%NULL%0,                  Yingwen%Wang%NULL%0,                  Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                  Simeng%Ma%NULL%0,                  Min%Chen%NULL%0,                  Jun%Yang%NULL%0,                  Ying%Wang%NULL%0,                  Ruiting%Li%NULL%0,                  Lihua%Yao%NULL%0,                  Hanping%Bai%NULL%0,                  Zhongxiang%Cai%NULL%0,                  Bing%Xiang Yang%NULL%0,                  Shaohua%Hu%NULL%0,                  Kerang%Zhang%NULL%0,                  Gaohua%Wang%NULL%0,                  Ci%Ma%NULL%0,                  Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                  Ziwei%Fang%NULL%0,                  Guoqiang%Hou%NULL%0,                  Mei%Han%NULL%0,                  Xinrong%Xu%NULL%0,                  Jiaxin%Dong%NULL%0,                  Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                  Simeng%Ma%NULL%0,                  Ying%Wang%NULL%0,                  Zhongxiang%Cai%NULL%0,                  Jianbo%Hu%NULL%0,                  Ning%Wei%NULL%0,                  Jiang%Wu%NULL%0,                  Hui%Du%NULL%0,                  Tingting%Chen%NULL%0,                  Ruiting%Li%NULL%0,                  Huawei%Tan%NULL%0,                  Lijun%Kang%NULL%0,                  Lihua%Yao%NULL%0,                  Manli%Huang%NULL%0,                  Huafen%Wang%NULL%0,                  Gaohua%Wang%NULL%0,                  Zhongchun%Liu%NULL%0,                  Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                  Lan%Deng%NULL%0,                  Lan%Deng%NULL%0,                  Liyan%Zhang%NULL%0,                  Qiuyan%Lang%NULL%0,                  Chunyan%Liao%NULL%0,                  Nannan%Wang%NULL%0,                  Mingqin%Qin%2026142822@qq.com%0,                  Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                  Yilin%Wang%NULL%1,                  Jia%Xue%NULL%1,                  Nan%Zhao%NULL%1,                  Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                  Yun-zhi%Yang%NULL%1,                  Xiao-Ming%Zhang%NULL%1,                  Xinying%Xu%NULL%2,                  Xinying%Xu%NULL%0,                  Qing-Li%Dou%NULL%1,                  Wen-Wu%Zhang%NULL%1,                  Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                  Yan%Zhang%NULL%0,                  Desheng%Kong%NULL%0,                  Shiyue%Li%NULL%0,                  Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,            Sunfang%Jiang%xref no email%1,            Hua%Yang%xref no email%1,            Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                  Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                  Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                  Elena%Del Fante%edelfante@hotmail.it%1,                  Rosanna%De Pace%Rosannadepace@libero.it%1,                  Antonino%Urso%antonino.urso@tin.it%1,                  Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -2117,7 +2198,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2129,7 +2210,7 @@
         <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3">
@@ -2146,7 +2227,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2158,7 +2239,7 @@
         <v>51</v>
       </c>
       <c r="I3" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4">
@@ -2175,7 +2256,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>483</v>
+        <v>508</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -2187,7 +2268,7 @@
         <v>56</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="5">
@@ -2204,7 +2285,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2216,7 +2297,7 @@
         <v>250</v>
       </c>
       <c r="I5" t="s">
-        <v>165</v>
+        <v>510</v>
       </c>
     </row>
     <row r="6">
@@ -2233,7 +2314,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>485</v>
+        <v>511</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2245,7 +2326,7 @@
         <v>62</v>
       </c>
       <c r="I6" t="s">
-        <v>161</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7">
@@ -2262,7 +2343,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2274,7 +2355,7 @@
         <v>67</v>
       </c>
       <c r="I7" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="8">
@@ -2320,7 +2401,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>487</v>
+        <v>513</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2332,7 +2413,7 @@
         <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>161</v>
+        <v>505</v>
       </c>
     </row>
     <row r="10">
@@ -2349,7 +2430,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2361,7 +2442,7 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>161</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11">
@@ -2407,7 +2488,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>489</v>
+        <v>515</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -2419,7 +2500,7 @@
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="13">
@@ -2436,7 +2517,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2448,7 +2529,7 @@
         <v>85</v>
       </c>
       <c r="I13" t="s">
-        <v>172</v>
+        <v>517</v>
       </c>
     </row>
     <row r="14">
@@ -2465,7 +2546,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>491</v>
+        <v>518</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -2477,7 +2558,7 @@
         <v>90</v>
       </c>
       <c r="I14" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="15">
@@ -2494,7 +2575,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>492</v>
+        <v>519</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2506,7 +2587,7 @@
         <v>250</v>
       </c>
       <c r="I15" t="s">
-        <v>165</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16">
@@ -2523,7 +2604,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>493</v>
+        <v>520</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -2535,7 +2616,7 @@
         <v>95</v>
       </c>
       <c r="I16" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="17">
@@ -2552,7 +2633,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>494</v>
+        <v>521</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2564,7 +2645,7 @@
         <v>100</v>
       </c>
       <c r="I17" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18">
@@ -2581,7 +2662,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>495</v>
+        <v>522</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2593,7 +2674,7 @@
         <v>67</v>
       </c>
       <c r="I18" t="s">
-        <v>161</v>
+        <v>505</v>
       </c>
     </row>
     <row r="19">
@@ -2610,7 +2691,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>496</v>
+        <v>523</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -2622,7 +2703,7 @@
         <v>109</v>
       </c>
       <c r="I19" t="s">
-        <v>161</v>
+        <v>505</v>
       </c>
     </row>
     <row r="20">
@@ -2639,7 +2720,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>497</v>
+        <v>524</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -2651,7 +2732,7 @@
         <v>114</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="21">
@@ -2668,7 +2749,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>498</v>
+        <v>525</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2680,7 +2761,7 @@
         <v>119</v>
       </c>
       <c r="I21" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="22">
@@ -2697,7 +2778,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>499</v>
+        <v>526</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2709,7 +2790,7 @@
         <v>124</v>
       </c>
       <c r="I22" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="23">
@@ -2726,7 +2807,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>500</v>
+        <v>527</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2738,7 +2819,7 @@
         <v>129</v>
       </c>
       <c r="I23" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="24">
@@ -2755,7 +2836,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>501</v>
+        <v>528</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2767,7 +2848,7 @@
         <v>134</v>
       </c>
       <c r="I24" t="s">
-        <v>163</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25">
@@ -2784,7 +2865,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>502</v>
+        <v>529</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2796,7 +2877,7 @@
         <v>272</v>
       </c>
       <c r="I25" t="s">
-        <v>165</v>
+        <v>510</v>
       </c>
     </row>
     <row r="26">
@@ -2813,7 +2894,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>503</v>
+        <v>530</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>
@@ -2825,7 +2906,7 @@
         <v>57</v>
       </c>
       <c r="I26" t="s">
-        <v>172</v>
+        <v>517</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3462" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="554">
   <si>
     <t>Doi</t>
   </si>
@@ -1851,6 +1851,75 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                  Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                  Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                  Elena%Del Fante%edelfante@hotmail.it%1,                  Rosanna%De Pace%Rosannadepace@libero.it%1,                  Antonino%Urso%antonino.urso@tin.it%1,                  Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                   Berta%Ausín%NULL%1,                   Miguel Ángel%Castellanos%NULL%1,                   Jesús%Saiz%NULL%1,                   Aída%López-Gómez%NULL%1,                   Carolina%Ugidos%NULL%1,                   Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                   Riyu%Pan%NULL%0,                   Riyu%Pan%NULL%0,                   Xiaoyang%Wan%NULL%0,                   Yilin%Tan%NULL%0,                   Linkang%Xu%NULL%0,                   Cyrus S.%Ho%NULL%0,                   Roger C.%Ho%NULL%0,                   Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                   Qian%Xia%NULL%1,                   Zhenzhen%Xiong%NULL%1,                   Zhixiong%Li%NULL%1,                   Weiyi%Xiang%NULL%1,                   Yiwen%Yuan%NULL%1,                   Yaya%Liu%NULL%1,                   Zhe%Li%NULL%1,                   Kenji%Hashimoto%NULL%0,                   Kenji%Hashimoto%NULL%0,                   Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yenan%Wang%xref no email%0,             Yu%Di%xref no email%0,             Junjie%Ye%xref no email%0,             Wenbin%Wei%xref no email%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                   Jun%Wang%NULL%1,                   Chenggang%Luo%NULL%1,                   Sheng%Hu%NULL%1,                   Xi%Lin%NULL%1,                   Aimee E.%Anderson%NULL%1,                   Eduardo%Bruera%NULL%1,                   Xiaoxin%Yang%NULL%1,                   Shaozhong%Wei%NULL%1,                   Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                   Zheng Feei%Ma%NULL%0,                   Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                   Riyu%Pan%NULL%0,                   Xiaoyang%Wan%NULL%0,                   Yilin%Tan%NULL%0,                   Linkang%Xu%NULL%0,                   Roger S.%McIntyre%NULL%1,                   Faith N.%Choo%NULL%1,                   Bach%Tran%NULL%1,                   Roger%Ho%NULL%1,                   Vijay K.%Sharma%NULL%0,                   Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                   Ariella%Grossman-Giron%NULL%1,                   Yuval%Bloch%NULL%1,                   Yael%Mayer%NULL%1,                   Noga%Shiffman%NULL%1,                   Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                   Philip J.%Corr%NULL%2,                   Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                   Li-Gang%Zhang%NULL%1,                   Lei-Lei%Wang%NULL%1,                   Zhao-Chang%Guo%NULL%1,                   Jing-Qi%Wang%NULL%1,                   Jin-Cheng%Chen%NULL%1,                   Mei%Liu%NULL%1,                   Xi%Chen%NULL%1,                   Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                   Baoren%Tu%NULL%0,                   Jing%Ma%NULL%0,                   Limin%Chen%NULL%0,                   Lei%Fu%NULL%0,                   Yongfang%Jiang%NULL%0,                   Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%1,             Maria%Dosil-Santamaria%xref no email%1,             Maitane%Picaza-Gorrochategui%xref no email%1,             Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                   Xiaoming%Huang%NULL%1,                   Shuai%Zhang%NULL%1,                   Jinrong%Yang%NULL%1,                   Lin%Yang%NULL%0,                   Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                   Zhenxin%Liao%NULL%0,                   Haojie%Huang%NULL%0,                   Boyue%Jiang%NULL%0,                   Xueyan%Zhang%NULL%0,                   Yingwen%Wang%NULL%0,                   Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                   Simeng%Ma%NULL%0,                   Min%Chen%NULL%0,                   Jun%Yang%NULL%0,                   Ying%Wang%NULL%0,                   Ruiting%Li%NULL%0,                   Lihua%Yao%NULL%0,                   Hanping%Bai%NULL%0,                   Zhongxiang%Cai%NULL%0,                   Bing%Xiang Yang%NULL%0,                   Shaohua%Hu%NULL%0,                   Kerang%Zhang%NULL%0,                   Gaohua%Wang%NULL%0,                   Ci%Ma%NULL%0,                   Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                   Ziwei%Fang%NULL%0,                   Guoqiang%Hou%NULL%0,                   Mei%Han%NULL%0,                   Xinrong%Xu%NULL%0,                   Jiaxin%Dong%NULL%0,                   Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                   Simeng%Ma%NULL%0,                   Ying%Wang%NULL%0,                   Zhongxiang%Cai%NULL%0,                   Jianbo%Hu%NULL%0,                   Ning%Wei%NULL%0,                   Jiang%Wu%NULL%0,                   Hui%Du%NULL%0,                   Tingting%Chen%NULL%0,                   Ruiting%Li%NULL%0,                   Huawei%Tan%NULL%0,                   Lijun%Kang%NULL%0,                   Lihua%Yao%NULL%0,                   Manli%Huang%NULL%0,                   Huafen%Wang%NULL%0,                   Gaohua%Wang%NULL%0,                   Zhongchun%Liu%NULL%0,                   Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                   Lan%Deng%NULL%0,                   Lan%Deng%NULL%0,                   Liyan%Zhang%NULL%0,                   Qiuyan%Lang%NULL%0,                   Chunyan%Liao%NULL%0,                   Nannan%Wang%NULL%0,                   Mingqin%Qin%2026142822@qq.com%0,                   Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                   Yilin%Wang%NULL%1,                   Jia%Xue%NULL%1,                   Nan%Zhao%NULL%1,                   Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                   Yun-zhi%Yang%NULL%1,                   Xiao-Ming%Zhang%NULL%1,                   Xinying%Xu%NULL%2,                   Xinying%Xu%NULL%0,                   Qing-Li%Dou%NULL%1,                   Wen-Wu%Zhang%NULL%1,                   Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                   Yan%Zhang%NULL%0,                   Desheng%Kong%NULL%0,                   Shiyue%Li%NULL%0,                   Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%1,             Sunfang%Jiang%xref no email%1,             Hua%Yang%xref no email%1,             Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                   Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                   Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                   Elena%Del Fante%edelfante@hotmail.it%1,                   Rosanna%De Pace%Rosannadepace@libero.it%1,                   Antonino%Urso%antonino.urso@tin.it%1,                   Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -2198,7 +2267,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>504</v>
+        <v>531</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2227,7 +2296,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2256,7 +2325,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>508</v>
+        <v>533</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -2285,7 +2354,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>509</v>
+        <v>534</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2314,7 +2383,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>511</v>
+        <v>535</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2343,7 +2412,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>512</v>
+        <v>536</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2401,7 +2470,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2430,7 +2499,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>514</v>
+        <v>538</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2488,7 +2557,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>515</v>
+        <v>539</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -2517,7 +2586,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>516</v>
+        <v>540</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2546,7 +2615,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>518</v>
+        <v>541</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -2575,7 +2644,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>519</v>
+        <v>542</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2604,7 +2673,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>520</v>
+        <v>543</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -2633,7 +2702,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>521</v>
+        <v>544</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2662,7 +2731,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2691,7 +2760,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>523</v>
+        <v>546</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -2720,7 +2789,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>524</v>
+        <v>547</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -2749,7 +2818,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>525</v>
+        <v>548</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2778,7 +2847,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>526</v>
+        <v>549</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2807,7 +2876,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>527</v>
+        <v>550</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2836,7 +2905,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>528</v>
+        <v>551</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2865,7 +2934,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>529</v>
+        <v>552</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2894,7 +2963,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>530</v>
+        <v>553</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3644" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="660">
   <si>
     <t>Doi</t>
   </si>
@@ -1920,6 +1920,324 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                   Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                   Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                   Elena%Del Fante%edelfante@hotmail.it%1,                   Rosanna%De Pace%Rosannadepace@libero.it%1,                   Antonino%Urso%antonino.urso@tin.it%1,                   Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                    Berta%Ausín%NULL%1,                    Miguel Ángel%Castellanos%NULL%1,                    Jesús%Saiz%NULL%1,                    Aída%López-Gómez%NULL%1,                    Carolina%Ugidos%NULL%1,                    Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                    Riyu%Pan%NULL%0,                    Riyu%Pan%NULL%0,                    Xiaoyang%Wan%NULL%0,                    Yilin%Tan%NULL%0,                    Linkang%Xu%NULL%0,                    Cyrus S.%Ho%NULL%0,                    Roger C.%Ho%NULL%0,                    Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                    Qian%Xia%NULL%1,                    Zhenzhen%Xiong%NULL%1,                    Zhixiong%Li%NULL%1,                    Weiyi%Xiang%NULL%1,                    Yiwen%Yuan%NULL%1,                    Yaya%Liu%NULL%1,                    Zhe%Li%NULL%1,                    Kenji%Hashimoto%NULL%0,                    Kenji%Hashimoto%NULL%0,                    Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>2023-06-05</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Informa UK Limited</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                    Jun%Wang%NULL%1,                    Chenggang%Luo%NULL%1,                    Sheng%Hu%NULL%1,                    Xi%Lin%NULL%1,                    Aimee E.%Anderson%NULL%1,                    Eduardo%Bruera%NULL%1,                    Xiaoxin%Yang%NULL%1,                    Shaozhong%Wei%NULL%1,                    Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                    Zheng Feei%Ma%NULL%0,                    Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                    Riyu%Pan%NULL%0,                    Xiaoyang%Wan%NULL%0,                    Yilin%Tan%NULL%0,                    Linkang%Xu%NULL%0,                    Roger S.%McIntyre%NULL%1,                    Faith N.%Choo%NULL%1,                    Bach%Tran%NULL%1,                    Roger%Ho%NULL%1,                    Vijay K.%Sharma%NULL%0,                    Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                    Ariella%Grossman-Giron%NULL%1,                    Yuval%Bloch%NULL%1,                    Yael%Mayer%NULL%1,                    Noga%Shiffman%NULL%1,                    Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                    Philip J.%Corr%NULL%2,                    Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                    Li-Gang%Zhang%NULL%1,                    Lei-Lei%Wang%NULL%1,                    Zhao-Chang%Guo%NULL%1,                    Jing-Qi%Wang%NULL%1,                    Jin-Cheng%Chen%NULL%1,                    Mei%Liu%NULL%1,                    Xi%Chen%NULL%1,                    Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                    Baoren%Tu%NULL%0,                    Jing%Ma%NULL%0,                    Limin%Chen%NULL%0,                    Lei%Fu%NULL%0,                    Yongfang%Jiang%NULL%0,                    Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Naiara%Ozamiz-Etxebarria%xref no email%0, Maria%Dosil-Santamaria%xref no email%1, Maitane%Picaza-Gorrochategui%xref no email%1, Nahia%Idoiaga-Mondragon%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: FapUNIFESP (SciELO)</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                    Xiaoming%Huang%NULL%1,                    Shuai%Zhang%NULL%1,                    Jinrong%Yang%NULL%1,                    Lin%Yang%NULL%0,                    Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                    Zhenxin%Liao%NULL%0,                    Haojie%Huang%NULL%0,                    Boyue%Jiang%NULL%0,                    Xueyan%Zhang%NULL%0,                    Yingwen%Wang%NULL%0,                    Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                    Simeng%Ma%NULL%0,                    Min%Chen%NULL%0,                    Jun%Yang%NULL%0,                    Ying%Wang%NULL%0,                    Ruiting%Li%NULL%0,                    Lihua%Yao%NULL%0,                    Hanping%Bai%NULL%0,                    Zhongxiang%Cai%NULL%0,                    Bing%Xiang Yang%NULL%0,                    Shaohua%Hu%NULL%0,                    Kerang%Zhang%NULL%0,                    Gaohua%Wang%NULL%0,                    Ci%Ma%NULL%0,                    Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                    Ziwei%Fang%NULL%0,                    Guoqiang%Hou%NULL%0,                    Mei%Han%NULL%0,                    Xinrong%Xu%NULL%0,                    Jiaxin%Dong%NULL%0,                    Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                    Simeng%Ma%NULL%0,                    Ying%Wang%NULL%0,                    Zhongxiang%Cai%NULL%0,                    Jianbo%Hu%NULL%0,                    Ning%Wei%NULL%0,                    Jiang%Wu%NULL%0,                    Hui%Du%NULL%0,                    Tingting%Chen%NULL%0,                    Ruiting%Li%NULL%0,                    Huawei%Tan%NULL%0,                    Lijun%Kang%NULL%0,                    Lihua%Yao%NULL%0,                    Manli%Huang%NULL%0,                    Huafen%Wang%NULL%0,                    Gaohua%Wang%NULL%0,                    Zhongchun%Liu%NULL%0,                    Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                    Lan%Deng%NULL%0,                    Lan%Deng%NULL%0,                    Liyan%Zhang%NULL%0,                    Qiuyan%Lang%NULL%0,                    Chunyan%Liao%NULL%0,                    Nannan%Wang%NULL%0,                    Mingqin%Qin%2026142822@qq.com%0,                    Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                    Yilin%Wang%NULL%1,                    Jia%Xue%NULL%1,                    Nan%Zhao%NULL%1,                    Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                    Yun-zhi%Yang%NULL%1,                    Xiao-Ming%Zhang%NULL%1,                    Xinying%Xu%NULL%2,                    Xinying%Xu%NULL%0,                    Qing-Li%Dou%NULL%1,                    Wen-Wu%Zhang%NULL%1,                    Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                    Yan%Zhang%NULL%0,                    Desheng%Kong%NULL%0,                    Shiyue%Li%NULL%0,                    Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Derek Gard-Ching%Ying%xref no email%0, Sunfang%Jiang%xref no email%1, Hua%Yang%xref no email%1, Shanzhu%Zhu%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                    Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                    Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                    Elena%Del Fante%edelfante@hotmail.it%1,                    Rosanna%De Pace%Rosannadepace@libero.it%1,                    Antonino%Urso%antonino.urso@tin.it%1,                    Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                     Berta%Ausín%NULL%1,                     Miguel Ángel%Castellanos%NULL%1,                     Jesús%Saiz%NULL%1,                     Aída%López-Gómez%NULL%1,                     Carolina%Ugidos%NULL%1,                     Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                     Riyu%Pan%NULL%0,                     Riyu%Pan%NULL%0,                     Xiaoyang%Wan%NULL%0,                     Yilin%Tan%NULL%0,                     Linkang%Xu%NULL%0,                     Cyrus S.%Ho%NULL%0,                     Roger C.%Ho%NULL%0,                     Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                     Qian%Xia%NULL%1,                     Zhenzhen%Xiong%NULL%1,                     Zhixiong%Li%NULL%1,                     Weiyi%Xiang%NULL%1,                     Yiwen%Yuan%NULL%1,                     Yaya%Liu%NULL%1,                     Zhe%Li%NULL%1,                     Kenji%Hashimoto%NULL%0,                     Kenji%Hashimoto%NULL%0,                     Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                     Jun%Wang%NULL%1,                     Chenggang%Luo%NULL%1,                     Sheng%Hu%NULL%1,                     Xi%Lin%NULL%1,                     Aimee E.%Anderson%NULL%1,                     Eduardo%Bruera%NULL%1,                     Xiaoxin%Yang%NULL%1,                     Shaozhong%Wei%NULL%1,                     Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                     Zheng Feei%Ma%NULL%0,                     Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                     Riyu%Pan%NULL%0,                     Xiaoyang%Wan%NULL%0,                     Yilin%Tan%NULL%0,                     Linkang%Xu%NULL%0,                     Roger S.%McIntyre%NULL%1,                     Faith N.%Choo%NULL%1,                     Bach%Tran%NULL%1,                     Roger%Ho%NULL%1,                     Vijay K.%Sharma%NULL%0,                     Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                     Ariella%Grossman-Giron%NULL%1,                     Yuval%Bloch%NULL%1,                     Yael%Mayer%NULL%1,                     Noga%Shiffman%NULL%1,                     Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                     Philip J.%Corr%NULL%2,                     Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                     Li-Gang%Zhang%NULL%1,                     Lei-Lei%Wang%NULL%1,                     Zhao-Chang%Guo%NULL%1,                     Jing-Qi%Wang%NULL%1,                     Jin-Cheng%Chen%NULL%1,                     Mei%Liu%NULL%1,                     Xi%Chen%NULL%1,                     Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                     Baoren%Tu%NULL%0,                     Jing%Ma%NULL%0,                     Limin%Chen%NULL%0,                     Lei%Fu%NULL%0,                     Yongfang%Jiang%NULL%0,                     Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                     Xiaoming%Huang%NULL%1,                     Shuai%Zhang%NULL%1,                     Jinrong%Yang%NULL%1,                     Lin%Yang%NULL%0,                     Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                     Zhenxin%Liao%NULL%0,                     Haojie%Huang%NULL%0,                     Boyue%Jiang%NULL%0,                     Xueyan%Zhang%NULL%0,                     Yingwen%Wang%NULL%0,                     Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                     Simeng%Ma%NULL%0,                     Min%Chen%NULL%0,                     Jun%Yang%NULL%0,                     Ying%Wang%NULL%0,                     Ruiting%Li%NULL%0,                     Lihua%Yao%NULL%0,                     Hanping%Bai%NULL%0,                     Zhongxiang%Cai%NULL%0,                     Bing%Xiang Yang%NULL%0,                     Shaohua%Hu%NULL%0,                     Kerang%Zhang%NULL%0,                     Gaohua%Wang%NULL%0,                     Ci%Ma%NULL%0,                     Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                     Ziwei%Fang%NULL%0,                     Guoqiang%Hou%NULL%0,                     Mei%Han%NULL%0,                     Xinrong%Xu%NULL%0,                     Jiaxin%Dong%NULL%0,                     Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                     Simeng%Ma%NULL%0,                     Ying%Wang%NULL%0,                     Zhongxiang%Cai%NULL%0,                     Jianbo%Hu%NULL%0,                     Ning%Wei%NULL%0,                     Jiang%Wu%NULL%0,                     Hui%Du%NULL%0,                     Tingting%Chen%NULL%0,                     Ruiting%Li%NULL%0,                     Huawei%Tan%NULL%0,                     Lijun%Kang%NULL%0,                     Lihua%Yao%NULL%0,                     Manli%Huang%NULL%0,                     Huafen%Wang%NULL%0,                     Gaohua%Wang%NULL%0,                     Zhongchun%Liu%NULL%0,                     Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                     Lan%Deng%NULL%0,                     Lan%Deng%NULL%0,                     Liyan%Zhang%NULL%0,                     Qiuyan%Lang%NULL%0,                     Chunyan%Liao%NULL%0,                     Nannan%Wang%NULL%0,                     Mingqin%Qin%2026142822@qq.com%0,                     Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                     Yilin%Wang%NULL%1,                     Jia%Xue%NULL%1,                     Nan%Zhao%NULL%1,                     Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                     Yun-zhi%Yang%NULL%1,                     Xiao-Ming%Zhang%NULL%1,                     Xinying%Xu%NULL%2,                     Xinying%Xu%NULL%0,                     Qing-Li%Dou%NULL%1,                     Wen-Wu%Zhang%NULL%1,                     Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                     Yan%Zhang%NULL%0,                     Desheng%Kong%NULL%0,                     Shiyue%Li%NULL%0,                     Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                     Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                     Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                     Elena%Del Fante%edelfante@hotmail.it%1,                     Rosanna%De Pace%Rosannadepace@libero.it%1,                     Antonino%Urso%antonino.urso@tin.it%1,                     Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                      Berta%Ausín%NULL%1,                      Miguel Ángel%Castellanos%NULL%1,                      Jesús%Saiz%NULL%1,                      Aída%López-Gómez%NULL%1,                      Carolina%Ugidos%NULL%1,                      Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                      Riyu%Pan%NULL%0,                      Riyu%Pan%NULL%0,                      Xiaoyang%Wan%NULL%0,                      Yilin%Tan%NULL%0,                      Linkang%Xu%NULL%0,                      Cyrus S.%Ho%NULL%0,                      Roger C.%Ho%NULL%0,                      Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                      Qian%Xia%NULL%1,                      Zhenzhen%Xiong%NULL%1,                      Zhixiong%Li%NULL%1,                      Weiyi%Xiang%NULL%1,                      Yiwen%Yuan%NULL%1,                      Yaya%Liu%NULL%1,                      Zhe%Li%NULL%1,                      Kenji%Hashimoto%NULL%0,                      Kenji%Hashimoto%NULL%0,                      Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                      Jun%Wang%NULL%1,                      Chenggang%Luo%NULL%1,                      Sheng%Hu%NULL%1,                      Xi%Lin%NULL%1,                      Aimee E.%Anderson%NULL%1,                      Eduardo%Bruera%NULL%1,                      Xiaoxin%Yang%NULL%1,                      Shaozhong%Wei%NULL%1,                      Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                      Zheng Feei%Ma%NULL%0,                      Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                      Riyu%Pan%NULL%0,                      Xiaoyang%Wan%NULL%0,                      Yilin%Tan%NULL%0,                      Linkang%Xu%NULL%0,                      Roger S.%McIntyre%NULL%1,                      Faith N.%Choo%NULL%1,                      Bach%Tran%NULL%1,                      Roger%Ho%NULL%1,                      Vijay K.%Sharma%NULL%0,                      Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                      Ariella%Grossman-Giron%NULL%1,                      Yuval%Bloch%NULL%1,                      Yael%Mayer%NULL%1,                      Noga%Shiffman%NULL%1,                      Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                      Philip J.%Corr%NULL%2,                      Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                      Li-Gang%Zhang%NULL%1,                      Lei-Lei%Wang%NULL%1,                      Zhao-Chang%Guo%NULL%1,                      Jing-Qi%Wang%NULL%1,                      Jin-Cheng%Chen%NULL%1,                      Mei%Liu%NULL%1,                      Xi%Chen%NULL%1,                      Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                      Baoren%Tu%NULL%0,                      Jing%Ma%NULL%0,                      Limin%Chen%NULL%0,                      Lei%Fu%NULL%0,                      Yongfang%Jiang%NULL%0,                      Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                      Xiaoming%Huang%NULL%1,                      Shuai%Zhang%NULL%1,                      Jinrong%Yang%NULL%1,                      Lin%Yang%NULL%0,                      Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                      Zhenxin%Liao%NULL%0,                      Haojie%Huang%NULL%0,                      Boyue%Jiang%NULL%0,                      Xueyan%Zhang%NULL%0,                      Yingwen%Wang%NULL%0,                      Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                      Simeng%Ma%NULL%0,                      Min%Chen%NULL%0,                      Jun%Yang%NULL%0,                      Ying%Wang%NULL%0,                      Ruiting%Li%NULL%0,                      Lihua%Yao%NULL%0,                      Hanping%Bai%NULL%0,                      Zhongxiang%Cai%NULL%0,                      Bing%Xiang Yang%NULL%0,                      Shaohua%Hu%NULL%0,                      Kerang%Zhang%NULL%0,                      Gaohua%Wang%NULL%0,                      Ci%Ma%NULL%0,                      Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                      Ziwei%Fang%NULL%0,                      Guoqiang%Hou%NULL%0,                      Mei%Han%NULL%0,                      Xinrong%Xu%NULL%0,                      Jiaxin%Dong%NULL%0,                      Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                      Simeng%Ma%NULL%0,                      Ying%Wang%NULL%0,                      Zhongxiang%Cai%NULL%0,                      Jianbo%Hu%NULL%0,                      Ning%Wei%NULL%0,                      Jiang%Wu%NULL%0,                      Hui%Du%NULL%0,                      Tingting%Chen%NULL%0,                      Ruiting%Li%NULL%0,                      Huawei%Tan%NULL%0,                      Lijun%Kang%NULL%0,                      Lihua%Yao%NULL%0,                      Manli%Huang%NULL%0,                      Huafen%Wang%NULL%0,                      Gaohua%Wang%NULL%0,                      Zhongchun%Liu%NULL%0,                      Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                      Lan%Deng%NULL%0,                      Lan%Deng%NULL%0,                      Liyan%Zhang%NULL%0,                      Qiuyan%Lang%NULL%0,                      Chunyan%Liao%NULL%0,                      Nannan%Wang%NULL%0,                      Mingqin%Qin%2026142822@qq.com%0,                      Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                      Yilin%Wang%NULL%1,                      Jia%Xue%NULL%1,                      Nan%Zhao%NULL%1,                      Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                      Yun-zhi%Yang%NULL%1,                      Xiao-Ming%Zhang%NULL%1,                      Xinying%Xu%NULL%2,                      Xinying%Xu%NULL%0,                      Qing-Li%Dou%NULL%1,                      Wen-Wu%Zhang%NULL%1,                      Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                      Yan%Zhang%NULL%0,                      Desheng%Kong%NULL%0,                      Shiyue%Li%NULL%0,                      Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                      Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                      Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                      Elena%Del Fante%edelfante@hotmail.it%1,                      Rosanna%De Pace%Rosannadepace@libero.it%1,                      Antonino%Urso%antonino.urso@tin.it%1,                      Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                       Berta%Ausín%NULL%1,                       Miguel Ángel%Castellanos%NULL%1,                       Jesús%Saiz%NULL%1,                       Aída%López-Gómez%NULL%1,                       Carolina%Ugidos%NULL%1,                       Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                       Riyu%Pan%NULL%0,                       Riyu%Pan%NULL%0,                       Xiaoyang%Wan%NULL%0,                       Yilin%Tan%NULL%0,                       Linkang%Xu%NULL%0,                       Cyrus S.%Ho%NULL%0,                       Roger C.%Ho%NULL%0,                       Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                       Qian%Xia%NULL%1,                       Zhenzhen%Xiong%NULL%1,                       Zhixiong%Li%NULL%1,                       Weiyi%Xiang%NULL%1,                       Yiwen%Yuan%NULL%1,                       Yaya%Liu%NULL%1,                       Zhe%Li%NULL%1,                       Kenji%Hashimoto%NULL%0,                       Kenji%Hashimoto%NULL%0,                       Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                       Jun%Wang%NULL%1,                       Chenggang%Luo%NULL%1,                       Sheng%Hu%NULL%1,                       Xi%Lin%NULL%1,                       Aimee E.%Anderson%NULL%1,                       Eduardo%Bruera%NULL%1,                       Xiaoxin%Yang%NULL%1,                       Shaozhong%Wei%NULL%1,                       Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                       Zheng Feei%Ma%NULL%0,                       Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                       Riyu%Pan%NULL%0,                       Xiaoyang%Wan%NULL%0,                       Yilin%Tan%NULL%0,                       Linkang%Xu%NULL%0,                       Roger S.%McIntyre%NULL%1,                       Faith N.%Choo%NULL%1,                       Bach%Tran%NULL%1,                       Roger%Ho%NULL%1,                       Vijay K.%Sharma%NULL%0,                       Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                       Ariella%Grossman-Giron%NULL%1,                       Yuval%Bloch%NULL%1,                       Yael%Mayer%NULL%1,                       Noga%Shiffman%NULL%1,                       Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                       Philip J.%Corr%NULL%2,                       Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                       Li-Gang%Zhang%NULL%1,                       Lei-Lei%Wang%NULL%1,                       Zhao-Chang%Guo%NULL%1,                       Jing-Qi%Wang%NULL%1,                       Jin-Cheng%Chen%NULL%1,                       Mei%Liu%NULL%1,                       Xi%Chen%NULL%1,                       Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                       Baoren%Tu%NULL%0,                       Jing%Ma%NULL%0,                       Limin%Chen%NULL%0,                       Lei%Fu%NULL%0,                       Yongfang%Jiang%NULL%0,                       Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                       Xiaoming%Huang%NULL%1,                       Shuai%Zhang%NULL%1,                       Jinrong%Yang%NULL%1,                       Lin%Yang%NULL%0,                       Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                       Zhenxin%Liao%NULL%0,                       Haojie%Huang%NULL%0,                       Boyue%Jiang%NULL%0,                       Xueyan%Zhang%NULL%0,                       Yingwen%Wang%NULL%0,                       Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                       Simeng%Ma%NULL%0,                       Min%Chen%NULL%0,                       Jun%Yang%NULL%0,                       Ying%Wang%NULL%0,                       Ruiting%Li%NULL%0,                       Lihua%Yao%NULL%0,                       Hanping%Bai%NULL%0,                       Zhongxiang%Cai%NULL%0,                       Bing%Xiang Yang%NULL%0,                       Shaohua%Hu%NULL%0,                       Kerang%Zhang%NULL%0,                       Gaohua%Wang%NULL%0,                       Ci%Ma%NULL%0,                       Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                       Ziwei%Fang%NULL%0,                       Guoqiang%Hou%NULL%0,                       Mei%Han%NULL%0,                       Xinrong%Xu%NULL%0,                       Jiaxin%Dong%NULL%0,                       Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                       Simeng%Ma%NULL%0,                       Ying%Wang%NULL%0,                       Zhongxiang%Cai%NULL%0,                       Jianbo%Hu%NULL%0,                       Ning%Wei%NULL%0,                       Jiang%Wu%NULL%0,                       Hui%Du%NULL%0,                       Tingting%Chen%NULL%0,                       Ruiting%Li%NULL%0,                       Huawei%Tan%NULL%0,                       Lijun%Kang%NULL%0,                       Lihua%Yao%NULL%0,                       Manli%Huang%NULL%0,                       Huafen%Wang%NULL%0,                       Gaohua%Wang%NULL%0,                       Zhongchun%Liu%NULL%0,                       Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                       Lan%Deng%NULL%0,                       Lan%Deng%NULL%0,                       Liyan%Zhang%NULL%0,                       Qiuyan%Lang%NULL%0,                       Chunyan%Liao%NULL%0,                       Nannan%Wang%NULL%0,                       Mingqin%Qin%2026142822@qq.com%0,                       Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                       Yilin%Wang%NULL%1,                       Jia%Xue%NULL%1,                       Nan%Zhao%NULL%1,                       Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                       Yun-zhi%Yang%NULL%1,                       Xiao-Ming%Zhang%NULL%1,                       Xinying%Xu%NULL%2,                       Xinying%Xu%NULL%0,                       Qing-Li%Dou%NULL%1,                       Wen-Wu%Zhang%NULL%1,                       Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                       Yan%Zhang%NULL%0,                       Desheng%Kong%NULL%0,                       Shiyue%Li%NULL%0,                       Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                       Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                       Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                       Elena%Del Fante%edelfante@hotmail.it%1,                       Rosanna%De Pace%Rosannadepace@libero.it%1,                       Antonino%Urso%antonino.urso@tin.it%1,                       Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                        Berta%Ausín%NULL%1,                        Miguel Ángel%Castellanos%NULL%1,                        Jesús%Saiz%NULL%1,                        Aída%López-Gómez%NULL%1,                        Carolina%Ugidos%NULL%1,                        Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                        Riyu%Pan%NULL%0,                        Riyu%Pan%NULL%0,                        Xiaoyang%Wan%NULL%0,                        Yilin%Tan%NULL%0,                        Linkang%Xu%NULL%0,                        Cyrus S.%Ho%NULL%0,                        Roger C.%Ho%NULL%0,                        Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                        Qian%Xia%NULL%1,                        Zhenzhen%Xiong%NULL%1,                        Zhixiong%Li%NULL%1,                        Weiyi%Xiang%NULL%1,                        Yiwen%Yuan%NULL%1,                        Yaya%Liu%NULL%1,                        Zhe%Li%NULL%1,                        Kenji%Hashimoto%NULL%0,                        Kenji%Hashimoto%NULL%0,                        Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                        Jun%Wang%NULL%1,                        Chenggang%Luo%NULL%1,                        Sheng%Hu%NULL%1,                        Xi%Lin%NULL%1,                        Aimee E.%Anderson%NULL%1,                        Eduardo%Bruera%NULL%1,                        Xiaoxin%Yang%NULL%1,                        Shaozhong%Wei%NULL%1,                        Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                        Zheng Feei%Ma%NULL%0,                        Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                        Riyu%Pan%NULL%0,                        Xiaoyang%Wan%NULL%0,                        Yilin%Tan%NULL%0,                        Linkang%Xu%NULL%0,                        Roger S.%McIntyre%NULL%1,                        Faith N.%Choo%NULL%1,                        Bach%Tran%NULL%1,                        Roger%Ho%NULL%1,                        Vijay K.%Sharma%NULL%0,                        Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                        Ariella%Grossman-Giron%NULL%1,                        Yuval%Bloch%NULL%1,                        Yael%Mayer%NULL%1,                        Noga%Shiffman%NULL%1,                        Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                        Philip J.%Corr%NULL%2,                        Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                        Li-Gang%Zhang%NULL%1,                        Lei-Lei%Wang%NULL%1,                        Zhao-Chang%Guo%NULL%1,                        Jing-Qi%Wang%NULL%1,                        Jin-Cheng%Chen%NULL%1,                        Mei%Liu%NULL%1,                        Xi%Chen%NULL%1,                        Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                        Baoren%Tu%NULL%0,                        Jing%Ma%NULL%0,                        Limin%Chen%NULL%0,                        Lei%Fu%NULL%0,                        Yongfang%Jiang%NULL%0,                        Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                        Xiaoming%Huang%NULL%1,                        Shuai%Zhang%NULL%1,                        Jinrong%Yang%NULL%1,                        Lin%Yang%NULL%0,                        Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                        Zhenxin%Liao%NULL%0,                        Haojie%Huang%NULL%0,                        Boyue%Jiang%NULL%0,                        Xueyan%Zhang%NULL%0,                        Yingwen%Wang%NULL%0,                        Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                        Simeng%Ma%NULL%0,                        Min%Chen%NULL%0,                        Jun%Yang%NULL%0,                        Ying%Wang%NULL%0,                        Ruiting%Li%NULL%0,                        Lihua%Yao%NULL%0,                        Hanping%Bai%NULL%0,                        Zhongxiang%Cai%NULL%0,                        Bing%Xiang Yang%NULL%0,                        Shaohua%Hu%NULL%0,                        Kerang%Zhang%NULL%0,                        Gaohua%Wang%NULL%0,                        Ci%Ma%NULL%0,                        Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                        Ziwei%Fang%NULL%0,                        Guoqiang%Hou%NULL%0,                        Mei%Han%NULL%0,                        Xinrong%Xu%NULL%0,                        Jiaxin%Dong%NULL%0,                        Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                        Simeng%Ma%NULL%0,                        Ying%Wang%NULL%0,                        Zhongxiang%Cai%NULL%0,                        Jianbo%Hu%NULL%0,                        Ning%Wei%NULL%0,                        Jiang%Wu%NULL%0,                        Hui%Du%NULL%0,                        Tingting%Chen%NULL%0,                        Ruiting%Li%NULL%0,                        Huawei%Tan%NULL%0,                        Lijun%Kang%NULL%0,                        Lihua%Yao%NULL%0,                        Manli%Huang%NULL%0,                        Huafen%Wang%NULL%0,                        Gaohua%Wang%NULL%0,                        Zhongchun%Liu%NULL%0,                        Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                        Lan%Deng%NULL%0,                        Lan%Deng%NULL%0,                        Liyan%Zhang%NULL%0,                        Qiuyan%Lang%NULL%0,                        Chunyan%Liao%NULL%0,                        Nannan%Wang%NULL%0,                        Mingqin%Qin%2026142822@qq.com%0,                        Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                        Yilin%Wang%NULL%1,                        Jia%Xue%NULL%1,                        Nan%Zhao%NULL%1,                        Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                        Yun-zhi%Yang%NULL%1,                        Xiao-Ming%Zhang%NULL%1,                        Xinying%Xu%NULL%2,                        Xinying%Xu%NULL%0,                        Qing-Li%Dou%NULL%1,                        Wen-Wu%Zhang%NULL%1,                        Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                        Yan%Zhang%NULL%0,                        Desheng%Kong%NULL%0,                        Shiyue%Li%NULL%0,                        Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                        Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                        Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                        Elena%Del Fante%edelfante@hotmail.it%1,                        Rosanna%De Pace%Rosannadepace@libero.it%1,                        Antonino%Urso%antonino.urso@tin.it%1,                        Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -2252,6 +2570,9 @@
       <c r="I1" t="s">
         <v>159</v>
       </c>
+      <c r="J1" t="s">
+        <v>554</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -2267,7 +2588,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>531</v>
+        <v>640</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2280,6 +2601,9 @@
       </c>
       <c r="I2" t="s">
         <v>505</v>
+      </c>
+      <c r="J2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -2296,7 +2620,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>532</v>
+        <v>641</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2309,6 +2633,9 @@
       </c>
       <c r="I3" t="s">
         <v>507</v>
+      </c>
+      <c r="J3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -2325,7 +2652,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>533</v>
+        <v>642</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -2338,6 +2665,9 @@
       </c>
       <c r="I4" t="s">
         <v>507</v>
+      </c>
+      <c r="J4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5">
@@ -2354,7 +2684,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>534</v>
+        <v>346</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2363,10 +2693,13 @@
         <v>249</v>
       </c>
       <c r="H5" t="s">
-        <v>250</v>
+        <v>558</v>
       </c>
       <c r="I5" t="s">
-        <v>510</v>
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="6">
@@ -2383,7 +2716,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>535</v>
+        <v>643</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2396,6 +2729,9 @@
       </c>
       <c r="I6" t="s">
         <v>505</v>
+      </c>
+      <c r="J6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7">
@@ -2412,7 +2748,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>536</v>
+        <v>644</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2425,6 +2761,9 @@
       </c>
       <c r="I7" t="s">
         <v>507</v>
+      </c>
+      <c r="J7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -2455,6 +2794,9 @@
       <c r="I8" t="s">
         <v>165</v>
       </c>
+      <c r="J8" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
@@ -2470,7 +2812,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>537</v>
+        <v>645</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2483,6 +2825,9 @@
       </c>
       <c r="I9" t="s">
         <v>505</v>
+      </c>
+      <c r="J9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10">
@@ -2499,7 +2844,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>538</v>
+        <v>646</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2512,6 +2857,9 @@
       </c>
       <c r="I10" t="s">
         <v>505</v>
+      </c>
+      <c r="J10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11">
@@ -2542,6 +2890,9 @@
       <c r="I11" t="s">
         <v>165</v>
       </c>
+      <c r="J11" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
@@ -2557,7 +2908,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>539</v>
+        <v>647</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -2570,6 +2921,9 @@
       </c>
       <c r="I12" t="s">
         <v>507</v>
+      </c>
+      <c r="J12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -2586,7 +2940,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>540</v>
+        <v>648</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2599,6 +2953,9 @@
       </c>
       <c r="I13" t="s">
         <v>517</v>
+      </c>
+      <c r="J13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -2615,7 +2972,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>541</v>
+        <v>649</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -2628,6 +2985,9 @@
       </c>
       <c r="I14" t="s">
         <v>507</v>
+      </c>
+      <c r="J14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -2644,7 +3004,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>542</v>
+        <v>354</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -2653,10 +3013,13 @@
         <v>249</v>
       </c>
       <c r="H15" t="s">
-        <v>250</v>
+        <v>558</v>
       </c>
       <c r="I15" t="s">
-        <v>510</v>
+        <v>165</v>
+      </c>
+      <c r="J15" t="s">
+        <v>568</v>
       </c>
     </row>
     <row r="16">
@@ -2673,7 +3036,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>543</v>
+        <v>650</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -2686,6 +3049,9 @@
       </c>
       <c r="I16" t="s">
         <v>507</v>
+      </c>
+      <c r="J16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17">
@@ -2702,7 +3068,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>544</v>
+        <v>651</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -2715,6 +3081,9 @@
       </c>
       <c r="I17" t="s">
         <v>507</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18">
@@ -2731,7 +3100,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>545</v>
+        <v>652</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -2744,6 +3113,9 @@
       </c>
       <c r="I18" t="s">
         <v>505</v>
+      </c>
+      <c r="J18" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -2760,7 +3132,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>546</v>
+        <v>653</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -2773,6 +3145,9 @@
       </c>
       <c r="I19" t="s">
         <v>505</v>
+      </c>
+      <c r="J19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="20">
@@ -2789,7 +3164,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>547</v>
+        <v>654</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -2802,6 +3177,9 @@
       </c>
       <c r="I20" t="s">
         <v>507</v>
+      </c>
+      <c r="J20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="21">
@@ -2818,7 +3196,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>548</v>
+        <v>655</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -2831,6 +3209,9 @@
       </c>
       <c r="I21" t="s">
         <v>507</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -2847,7 +3228,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>549</v>
+        <v>656</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -2860,6 +3241,9 @@
       </c>
       <c r="I22" t="s">
         <v>507</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -2876,7 +3260,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>550</v>
+        <v>657</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -2889,6 +3273,9 @@
       </c>
       <c r="I23" t="s">
         <v>507</v>
+      </c>
+      <c r="J23" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24">
@@ -2905,7 +3292,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>551</v>
+        <v>658</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -2918,6 +3305,9 @@
       </c>
       <c r="I24" t="s">
         <v>507</v>
+      </c>
+      <c r="J24" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25">
@@ -2934,7 +3324,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>552</v>
+        <v>364</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -2946,7 +3336,10 @@
         <v>272</v>
       </c>
       <c r="I25" t="s">
-        <v>510</v>
+        <v>165</v>
+      </c>
+      <c r="J25" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="26">
@@ -2963,7 +3356,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>553</v>
+        <v>659</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>
@@ -2976,6 +3369,9 @@
       </c>
       <c r="I26" t="s">
         <v>517</v>
+      </c>
+      <c r="J26" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/66.xlsx
+++ b/Covid_19_Dataset_and_References/References/66.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4684" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5100" uniqueCount="713">
   <si>
     <t>Doi</t>
   </si>
@@ -2238,6 +2238,184 @@
   </si>
   <si>
     <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                        Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                        Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                        Elena%Del Fante%edelfante@hotmail.it%1,                        Rosanna%De Pace%Rosannadepace@libero.it%1,                        Antonino%Urso%antonino.urso@tin.it%1,                        Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                         Berta%Ausín%NULL%1,                         Miguel Ángel%Castellanos%NULL%1,                         Jesús%Saiz%NULL%1,                         Aída%López-Gómez%NULL%1,                         Carolina%Ugidos%NULL%1,                         Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                         Riyu%Pan%NULL%0,                         Riyu%Pan%NULL%0,                         Xiaoyang%Wan%NULL%0,                         Yilin%Tan%NULL%0,                         Linkang%Xu%NULL%0,                         Cyrus S.%Ho%NULL%0,                         Roger C.%Ho%NULL%0,                         Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                         Qian%Xia%NULL%1,                         Zhenzhen%Xiong%NULL%1,                         Zhixiong%Li%NULL%1,                         Weiyi%Xiang%NULL%1,                         Yiwen%Yuan%NULL%1,                         Yaya%Liu%NULL%1,                         Zhe%Li%NULL%1,                         Kenji%Hashimoto%NULL%0,                         Kenji%Hashimoto%NULL%0,                         Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                         Jun%Wang%NULL%1,                         Chenggang%Luo%NULL%1,                         Sheng%Hu%NULL%1,                         Xi%Lin%NULL%1,                         Aimee E.%Anderson%NULL%1,                         Eduardo%Bruera%NULL%1,                         Xiaoxin%Yang%NULL%1,                         Shaozhong%Wei%NULL%1,                         Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                         Zheng Feei%Ma%NULL%0,                         Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Psychological status and sleep quality of nursing interns during the outbreak of COVID-19].</t>
+  </si>
+  <si>
+    <t>OBJECTIVE To investigate the psychological status and sleep quality of nursing interns in collective isolation during the outbreak of coronavirus disease 2019 (COVID-19) and provide evidence for adequate interventions. METHODS We surveyed a total of 95 nursing interns who were isolated collectively in a general teaching hospital in Guangzhou using a self-designed questionnaire, which consisted of a basic information form, self-rating anxiety scale (SAS), self-rating depression scale (SDS) and Pittsburgh Sleep Quality Index (PSQI). Descriptive analysis, single factor analysis and correlation analysis were used to analyze the current status of the interns' psychology and sleep quality, the potential factors affecting their psychology and sleep quality, and the correlation between their psychological status and sleep quality. RESULTS The surveyed interns had SAS, SDS and PSQI score of 37.79±6.59, 43.98±9.74 and 5.20±3.14, respectively, which were significant higher than the national norms in China (P &lt; 0.05). Correlation analysis indicated that both anxiety and depression were positively correlated with the sleep quality score (r=0.508 and 0.546, respectively). Univariate analysis showed that the major factors affecting the psychological status and sleep quality of the interns during collective isolation included recent contact with persons from the affected area before isolation and the onset of fever during the isolation. CONCLUSIONS These interns showed relatively high levels of anxiety and depression during the collective isolation to affect their sleep quality, and interventions should be timely administered to improve their mental health and sleep quality.</t>
+  </si>
+  <si>
+    <t>[ Xiaoyan%Sheng%elasticNoEmail%0,  Fenyu% Liu%elasticNoEmail%0,  Jin% Zhou%elasticNoEmail%0,  Rongrong% Liao%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>ELASTIC</t>
+  </si>
+  <si>
+    <t>2020-03-30</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                         Riyu%Pan%NULL%0,                         Xiaoyang%Wan%NULL%0,                         Yilin%Tan%NULL%0,                         Linkang%Xu%NULL%0,                         Roger S.%McIntyre%NULL%1,                         Faith N.%Choo%NULL%1,                         Bach%Tran%NULL%1,                         Roger%Ho%NULL%1,                         Vijay K.%Sharma%NULL%0,                         Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                         Ariella%Grossman-Giron%NULL%1,                         Yuval%Bloch%NULL%1,                         Yael%Mayer%NULL%1,                         Noga%Shiffman%NULL%1,                         Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mental health survey of 230 medical staff in a tertiary infectious disease hospital for COVID-19].</t>
+  </si>
+  <si>
+    <t>Objective: To investigate the mental health of clinical first-line medical staff in COVID-19 epidemic and provide theoretical basis for psychological intervention. Method: The mental health status of the first-line medical staff was investigated by Self-rating Anxiety Acale (SAS) and Post-Traumatic Stress Disorder Self-rating Scale(PTSD-SS). From February 7 to 14, 2020, 246 medical staff were investigated who participated in the treatment of COVID-19 using cluster sampling , and received 230 responses, with a recovery rate of 93.5%. Results: The incidence of anxiety in medical staff was 23.04% (53/230), and the score of SAS was (42.91 ± 10.89). Among them, the incidence of severe anxiety, moderate anxiety and mild anxiety were 2.17% (5/230), 4.78% (11/230) and 16.09% (37/230), respectively. The incidence of anxiety in female medical staff was higher than that in male [25.67% (48/187) vs 11.63% (5/43), Z=-2.008, P=0.045], the score of SAS in female medical staff was higher than that in male [(43.78±11.12) vs (39.14 ± 9.01), t =-2.548, P=0.012]. The incidence of anxiety in nurses was higher than that in doctors [26.88% (43/160) vs 14.29% (10/70), Z=-2.066, P=0.039], and the score of SAS in nurses was higher than that in doctors [(44.84±10.42) vs (38.50±10.72), t =-4.207, P&lt;0.001]. The incidence of stress disorder in medical staff was 27.39% (63/230), and the score of PTSD-SS was (42.92 ± 17.88). The score of PTSD-SS in female medical staff was higher than that of male [(44.30±18.42) vs(36.91 ± 13.95), t=-2.472, P=0.014]. Conclusions: In COVID-19 epidemic, the incidence of anxiety and stress disorder is high among medical staff. Medical institutions should strengthen the training of psychological skills of medical staff. Special attention should be paid to the mental health of female nurses.</t>
+  </si>
+  <si>
+    <t>[ J Z%Huang%elasticNoEmail%0,  M F% Han%elasticNoEmail%0,  T D% Luo%elasticNoEmail%0,  A K% Ren%elasticNoEmail%0,  X P% Zhou%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>2020-03-04</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                         Philip J.%Corr%NULL%2,                         Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                         Li-Gang%Zhang%NULL%1,                         Lei-Lei%Wang%NULL%1,                         Zhao-Chang%Guo%NULL%1,                         Jing-Qi%Wang%NULL%1,                         Jin-Cheng%Chen%NULL%1,                         Mei%Liu%NULL%1,                         Xi%Chen%NULL%1,                         Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                         Baoren%Tu%NULL%0,                         Jing%Ma%NULL%0,                         Limin%Chen%NULL%0,                         Lei%Fu%NULL%0,                         Yongfang%Jiang%NULL%0,                         Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                         Xiaoming%Huang%NULL%1,                         Shuai%Zhang%NULL%1,                         Jinrong%Yang%NULL%1,                         Lin%Yang%NULL%0,                         Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                         Zhenxin%Liao%NULL%0,                         Haojie%Huang%NULL%0,                         Boyue%Jiang%NULL%0,                         Xueyan%Zhang%NULL%0,                         Yingwen%Wang%NULL%0,                         Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                         Simeng%Ma%NULL%0,                         Min%Chen%NULL%0,                         Jun%Yang%NULL%0,                         Ying%Wang%NULL%0,                         Ruiting%Li%NULL%0,                         Lihua%Yao%NULL%0,                         Hanping%Bai%NULL%0,                         Zhongxiang%Cai%NULL%0,                         Bing%Xiang Yang%NULL%0,                         Shaohua%Hu%NULL%0,                         Kerang%Zhang%NULL%0,                         Gaohua%Wang%NULL%0,                         Ci%Ma%NULL%0,                         Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                         Ziwei%Fang%NULL%0,                         Guoqiang%Hou%NULL%0,                         Mei%Han%NULL%0,                         Xinrong%Xu%NULL%0,                         Jiaxin%Dong%NULL%0,                         Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                         Simeng%Ma%NULL%0,                         Ying%Wang%NULL%0,                         Zhongxiang%Cai%NULL%0,                         Jianbo%Hu%NULL%0,                         Ning%Wei%NULL%0,                         Jiang%Wu%NULL%0,                         Hui%Du%NULL%0,                         Tingting%Chen%NULL%0,                         Ruiting%Li%NULL%0,                         Huawei%Tan%NULL%0,                         Lijun%Kang%NULL%0,                         Lihua%Yao%NULL%0,                         Manli%Huang%NULL%0,                         Huafen%Wang%NULL%0,                         Gaohua%Wang%NULL%0,                         Zhongchun%Liu%NULL%0,                         Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                         Lan%Deng%NULL%0,                         Lan%Deng%NULL%0,                         Liyan%Zhang%NULL%0,                         Qiuyan%Lang%NULL%0,                         Chunyan%Liao%NULL%0,                         Nannan%Wang%NULL%0,                         Mingqin%Qin%2026142822@qq.com%0,                         Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                         Yilin%Wang%NULL%1,                         Jia%Xue%NULL%1,                         Nan%Zhao%NULL%1,                         Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                         Yun-zhi%Yang%NULL%1,                         Xiao-Ming%Zhang%NULL%1,                         Xinying%Xu%NULL%2,                         Xinying%Xu%NULL%0,                         Qing-Li%Dou%NULL%1,                         Wen-Wu%Zhang%NULL%1,                         Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                         Yan%Zhang%NULL%0,                         Desheng%Kong%NULL%0,                         Shiyue%Li%NULL%0,                         Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                         Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                         Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                         Elena%Del Fante%edelfante@hotmail.it%1,                         Rosanna%De Pace%Rosannadepace@libero.it%1,                         Antonino%Urso%antonino.urso@tin.it%1,                         Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
+  </si>
+  <si>
+    <t>[Clara%González-Sanguino%NULL%0,                          Berta%Ausín%NULL%1,                          Miguel Ángel%Castellanos%NULL%1,                          Jesús%Saiz%NULL%1,                          Aída%López-Gómez%NULL%1,                          Carolina%Ugidos%NULL%1,                          Manuel%Muñoz%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                          Riyu%Pan%NULL%0,                          Riyu%Pan%NULL%0,                          Xiaoyang%Wan%NULL%0,                          Yilin%Tan%NULL%0,                          Linkang%Xu%NULL%0,                          Cyrus S.%Ho%NULL%0,                          Roger C.%Ho%NULL%0,                          Roger C.%Ho%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Huiyao%Wang%NULL%1,                          Qian%Xia%NULL%1,                          Zhenzhen%Xiong%NULL%1,                          Zhixiong%Li%NULL%1,                          Weiyi%Xiang%NULL%1,                          Yiwen%Yuan%NULL%1,                          Yaya%Liu%NULL%1,                          Zhe%Li%NULL%1,                          Kenji%Hashimoto%NULL%0,                          Kenji%Hashimoto%NULL%0,                          Kenji%Hashimoto%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuan%Wu%NULL%1,                          Jun%Wang%NULL%1,                          Chenggang%Luo%NULL%1,                          Sheng%Hu%NULL%1,                          Xi%Lin%NULL%1,                          Aimee E.%Anderson%NULL%1,                          Eduardo%Bruera%NULL%1,                          Xiaoxin%Yang%NULL%1,                          Shaozhong%Wei%NULL%1,                          Yu%Qian%173653835@qq.com%1]</t>
+  </si>
+  <si>
+    <t>[Yingfei%Zhang%NULL%0,                          Zheng Feei%Ma%NULL%0,                          Zheng Feei%Ma%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OBJECTIVE To investigate the psychological status and sleep quality of nursing interns in collective isolation during the outbreak of coronavirus disease 2019 (COVID-19) and provide evidence for adequate interventions.
+ METHODS We surveyed a total of 95 nursing interns who were isolated collectively in a general teaching hospital in Guangzhou using a self-designed questionnaire, which consisted of a basic information form, self-rating anxiety scale (SAS), self-rating depression scale (SDS) and Pittsburgh Sleep Quality Index (PSQI).
+ Descriptive analysis, single factor analysis and correlation analysis were used to analyze the current status of the interns' psychology and sleep quality, the potential factors affecting their psychology and sleep quality, and the correlation between their psychological status and sleep quality.
+ RESULTS The surveyed interns had SAS, SDS and PSQI score of 37.79±6.59, 43.98±9.74 and 5.20±3.14, respectively, which were significant higher than the national norms in China (P &lt; 0.05).
+ Correlation analysis indicated that both anxiety and depression were positively correlated with the sleep quality score (r=0.508 and 0.546, respectively).
+ Univariate analysis showed that the major factors affecting the psychological status and sleep quality of the interns during collective isolation included recent contact with persons from the affected area before isolation and the onset of fever during the isolation.
+ CONCLUSIONS These interns showed relatively high levels of anxiety and depression during the collective isolation to affect their sleep quality, and interventions should be timely administered to improve their mental health and sleep quality.
+</t>
+  </si>
+  <si>
+    <t>[ Xiaoyan%Sheng%elasticNoEmail%0,   Fenyu% Liu%elasticNoEmail%0,   Jin% Zhou%elasticNoEmail%0,   Rongrong% Liao%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Cuiyan%Wang%NULL%0,                          Riyu%Pan%NULL%0,                          Xiaoyang%Wan%NULL%0,                          Yilin%Tan%NULL%0,                          Linkang%Xu%NULL%0,                          Roger S.%McIntyre%NULL%1,                          Faith N.%Choo%NULL%1,                          Bach%Tran%NULL%1,                          Roger%Ho%NULL%1,                          Vijay K.%Sharma%NULL%0,                          Cyrus%Ho%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dana%Tzur Bitan%NULL%2,                          Ariella%Grossman-Giron%NULL%1,                          Yuval%Bloch%NULL%1,                          Yael%Mayer%NULL%1,                          Noga%Shiffman%NULL%1,                          Shlomo%Mendlovic%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective: To investigate the mental health of clinical first-line medical staff in COVID-19 epidemic and provide theoretical basis for psychological intervention.
+ Method: The mental health status of the first-line medical staff was investigated by Self-rating Anxiety Acale (SAS) and Post-Traumatic Stress Disorder Self-rating Scale(PTSD-SS).
+ From February 7 to 14, 2020, 246 medical staff were investigated who participated in the treatment of COVID-19 using cluster sampling , and received 230 responses, with a recovery rate of 93.5%.
+ Results: The incidence of anxiety in medical staff was 23.04% (53/230), and the score of SAS was (42.91 ± 10.89).
+ Among them, the incidence of severe anxiety, moderate anxiety and mild anxiety were 2.17% (5/230), 4.78% (11/230) and 16.09% (37/230), respectively.
+ The incidence of anxiety in female medical staff was higher than that in male [25.67% (48/187) vs 11.63% (5/43), Z=-2.008, P=0.045], the score of SAS in female medical staff was higher than that in male [(43.78±11.12) vs (39.14 ± 9.01), t =-2.548, P=0.012].
+ The incidence of anxiety in nurses was higher than that in doctors [26.88% (43/160) vs 14.29% (10/70), Z=-2.066, P=0.039], and the score of SAS in nurses was higher than that in doctors [(44.84±10.42) vs (38.50±10.72), t =-4.207, P&lt;0.001].
+ The incidence of stress disorder in medical staff was 27.39% (63/230), and the score of PTSD-SS was (42.92 ± 17.88).
+ The score of PTSD-SS in female medical staff was higher than that of male [(44.30±18.42) vs(36.91 ± 13.95), t=-2.472, P=0.014].
+ Conclusions: In COVID-19 epidemic, the incidence of anxiety and stress disorder is high among medical staff.
+ Medical institutions should strengthen the training of psychological skills of medical staff.
+ Special attention should be paid to the mental health of female nurses.
+</t>
+  </si>
+  <si>
+    <t>[ J Z%Huang%elasticNoEmail%0,   M F% Han%elasticNoEmail%0,   T D% Luo%elasticNoEmail%0,   A K% Ren%elasticNoEmail%0,   X P% Zhou%elasticNoEmail%0]</t>
+  </si>
+  <si>
+    <t>[Alison M.%Bacon%ambacon@plymouth.ac.uk%1,                          Philip J.%Corr%NULL%2,                          Philip J.%Corr%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Shuang-Jiang%Zhou%NULL%4,                          Li-Gang%Zhang%NULL%1,                          Lei-Lei%Wang%NULL%1,                          Zhao-Chang%Guo%NULL%1,                          Jing-Qi%Wang%NULL%1,                          Jin-Cheng%Chen%NULL%1,                          Mei%Liu%NULL%1,                          Xi%Chen%NULL%1,                          Jing-Xu%Chen%chenjx1110@163.com%1]</t>
+  </si>
+  <si>
+    <t>[Haozheng%Cai%NULL%0,                          Baoren%Tu%NULL%0,                          Jing%Ma%NULL%0,                          Limin%Chen%NULL%0,                          Lei%Fu%NULL%0,                          Yongfang%Jiang%NULL%0,                          Quan%Zhuang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lei%Lei%NULL%1,                          Xiaoming%Huang%NULL%1,                          Shuai%Zhang%NULL%1,                          Jinrong%Yang%NULL%1,                          Lin%Yang%NULL%0,                          Min%Xu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Shuai%Yuan%NULL%0,                          Zhenxin%Liao%NULL%0,                          Haojie%Huang%NULL%0,                          Boyue%Jiang%NULL%0,                          Xueyan%Zhang%NULL%0,                          Yingwen%Wang%NULL%0,                          Mingyi%Zhao%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Lijun%Kang%NULL%0,                          Simeng%Ma%NULL%0,                          Min%Chen%NULL%0,                          Jun%Yang%NULL%0,                          Ying%Wang%NULL%0,                          Ruiting%Li%NULL%0,                          Lihua%Yao%NULL%0,                          Hanping%Bai%NULL%0,                          Zhongxiang%Cai%NULL%0,                          Bing%Xiang Yang%NULL%0,                          Shaohua%Hu%NULL%0,                          Kerang%Zhang%NULL%0,                          Gaohua%Wang%NULL%0,                          Ci%Ma%NULL%0,                          Zhongchun%Liu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Wenjun%Cao%wjcao16@czmc.edu.cn%0,                          Ziwei%Fang%NULL%0,                          Guoqiang%Hou%NULL%0,                          Mei%Han%NULL%0,                          Xinrong%Xu%NULL%0,                          Jiaxin%Dong%NULL%0,                          Jianzhong%Zheng%zhengjj@czmc.edu.cn%0]</t>
+  </si>
+  <si>
+    <t>[Jianbo%Lai%NULL%0,                          Simeng%Ma%NULL%0,                          Ying%Wang%NULL%0,                          Zhongxiang%Cai%NULL%0,                          Jianbo%Hu%NULL%0,                          Ning%Wei%NULL%0,                          Jiang%Wu%NULL%0,                          Hui%Du%NULL%0,                          Tingting%Chen%NULL%0,                          Ruiting%Li%NULL%0,                          Huawei%Tan%NULL%0,                          Lijun%Kang%NULL%0,                          Lihua%Yao%NULL%0,                          Manli%Huang%NULL%0,                          Huafen%Wang%NULL%0,                          Gaohua%Wang%NULL%0,                          Zhongchun%Liu%NULL%0,                          Shaohua%Hu%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Yuanyuan%Mo%NULL%0,                          Lan%Deng%NULL%0,                          Lan%Deng%NULL%0,                          Liyan%Zhang%NULL%0,                          Qiuyan%Lang%NULL%0,                          Chunyan%Liao%NULL%0,                          Nannan%Wang%NULL%0,                          Mingqin%Qin%2026142822@qq.com%0,                          Huiqiao%Huang%820325832@qq.com%0]</t>
+  </si>
+  <si>
+    <t>[Sijia%Li%NULL%0,                          Yilin%Wang%NULL%1,                          Jia%Xue%NULL%1,                          Nan%Zhao%NULL%1,                          Tingshao%Zhu%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chen-Yun%Liu%NULL%0,                          Yun-zhi%Yang%NULL%1,                          Xiao-Ming%Zhang%NULL%1,                          Xinying%Xu%NULL%2,                          Xinying%Xu%NULL%0,                          Qing-Li%Dou%NULL%1,                          Wen-Wu%Zhang%NULL%1,                          Andy S. K.%Cheng%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Han%Xiao%NULL%0,                          Yan%Zhang%NULL%0,                          Desheng%Kong%NULL%0,                          Shiyue%Li%NULL%0,                          Ningxi%Yang%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Paolo%Soraci%paolo.soraci85@gmail.com%2,                          Ambra%Ferrari%a.ferrari50@campus.unimib.it%1,                          Francesco A.%Abbiati%francesco.abbiati@edu.unito.it%1,                          Elena%Del Fante%edelfante@hotmail.it%1,                          Rosanna%De Pace%Rosannadepace@libero.it%1,                          Antonino%Urso%antonino.urso@tin.it%1,                          Mark D.%Griffiths%mark.griffiths@ntu.ac.uk%1]</t>
   </si>
 </sst>
 </file>
@@ -2588,7 +2766,7 @@
         <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>640</v>
+        <v>689</v>
       </c>
       <c r="F2" t="s">
         <v>44</v>
@@ -2620,7 +2798,7 @@
         <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>641</v>
+        <v>690</v>
       </c>
       <c r="F3" t="s">
         <v>50</v>
@@ -2652,7 +2830,7 @@
         <v>53</v>
       </c>
       <c r="E4" t="s">
-        <v>642</v>
+        <v>691</v>
       </c>
       <c r="F4" t="s">
         <v>55</v>
@@ -2684,7 +2862,7 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2716,7 +2894,7 @@
         <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>643</v>
+        <v>692</v>
       </c>
       <c r="F6" t="s">
         <v>61</v>
@@ -2748,7 +2926,7 @@
         <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>644</v>
+        <v>693</v>
       </c>
       <c r="F7" t="s">
         <v>66</v>
@@ -2774,22 +2952,22 @@
         <v>43920.0</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>665</v>
       </c>
       <c r="D8" t="s">
-        <v>34</v>
+        <v>694</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>695</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>9</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>668</v>
       </c>
       <c r="H8" t="s">
-        <v>57</v>
+        <v>669</v>
       </c>
       <c r="I8" t="s">
         <v>165</v>
@@ -2812,7 +2990,7 @@
         <v>69</v>
       </c>
       <c r="E9" t="s">
-        <v>645</v>
+        <v>696</v>
       </c>
       <c r="F9" t="s">
         <v>71</v>
@@ -2844,7 +3022,7 @@
         <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>646</v>
+        <v>697</v>
       </c>
       <c r="F10" t="s">
         <v>76</v>
@@ -2870,22 +3048,22 @@
         <v>43910.0</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>672</v>
       </c>
       <c r="D11" t="s">
-        <v>34</v>
+        <v>698</v>
       </c>
       <c r="E11" t="s">
-        <v>37</v>
+        <v>699</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>668</v>
       </c>
       <c r="H11" t="s">
-        <v>57</v>
+        <v>675</v>
       </c>
       <c r="I11" t="s">
         <v>165</v>
@@ -2908,7 +3086,7 @@
         <v>78</v>
       </c>
       <c r="E12" t="s">
-        <v>647</v>
+        <v>700</v>
       </c>
       <c r="F12" t="s">
         <v>80</v>
@@ -2940,7 +3118,7 @@
         <v>82</v>
       </c>
       <c r="E13" t="s">
-        <v>648</v>
+        <v>701</v>
       </c>
       <c r="F13" t="s">
         <v>84</v>
@@ -2972,7 +3150,7 @@
         <v>87</v>
       </c>
       <c r="E14" t="s">
-        <v>649</v>
+        <v>702</v>
       </c>
       <c r="F14" t="s">
         <v>89</v>
@@ -3004,7 +3182,7 @@
         <v>259</v>
       </c>
       <c r="E15" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="F15" t="s">
         <v>17</v>
@@ -3036,7 +3214,7 @@
         <v>92</v>
       </c>
       <c r="E16" t="s">
-        <v>650</v>
+        <v>703</v>
       </c>
       <c r="F16" t="s">
         <v>94</v>
@@ -3068,7 +3246,7 @@
         <v>97</v>
       </c>
       <c r="E17" t="s">
-        <v>651</v>
+        <v>704</v>
       </c>
       <c r="F17" t="s">
         <v>99</v>
@@ -3100,7 +3278,7 @@
         <v>102</v>
       </c>
       <c r="E18" t="s">
-        <v>652</v>
+        <v>705</v>
       </c>
       <c r="F18" t="s">
         <v>104</v>
@@ -3132,7 +3310,7 @@
         <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>653</v>
+        <v>706</v>
       </c>
       <c r="F19" t="s">
         <v>108</v>
@@ -3164,7 +3342,7 @@
         <v>111</v>
       </c>
       <c r="E20" t="s">
-        <v>654</v>
+        <v>707</v>
       </c>
       <c r="F20" t="s">
         <v>113</v>
@@ -3196,7 +3374,7 @@
         <v>116</v>
       </c>
       <c r="E21" t="s">
-        <v>655</v>
+        <v>708</v>
       </c>
       <c r="F21" t="s">
         <v>118</v>
@@ -3228,7 +3406,7 @@
         <v>121</v>
       </c>
       <c r="E22" t="s">
-        <v>656</v>
+        <v>709</v>
       </c>
       <c r="F22" t="s">
         <v>123</v>
@@ -3260,7 +3438,7 @@
         <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>657</v>
+        <v>710</v>
       </c>
       <c r="F23" t="s">
         <v>128</v>
@@ -3292,7 +3470,7 @@
         <v>131</v>
       </c>
       <c r="E24" t="s">
-        <v>658</v>
+        <v>711</v>
       </c>
       <c r="F24" t="s">
         <v>133</v>
@@ -3324,7 +3502,7 @@
         <v>34</v>
       </c>
       <c r="E25" t="s">
-        <v>364</v>
+        <v>410</v>
       </c>
       <c r="F25" t="s">
         <v>28</v>
@@ -3356,7 +3534,7 @@
         <v>136</v>
       </c>
       <c r="E26" t="s">
-        <v>659</v>
+        <v>712</v>
       </c>
       <c r="F26" t="s">
         <v>138</v>
